--- a/DND05S.xlsx
+++ b/DND05S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="657">
   <si>
     <t/>
   </si>
@@ -64,7 +64,7 @@
     <t>20123338</t>
   </si>
   <si>
-    <t>RNSO+ML LIQ RSE1.45L</t>
+    <t>RNSO+ML LIQ RS1.45KG</t>
   </si>
   <si>
     <t>PT</t>
@@ -262,12 +262,6 @@
     <t>SO KLIN LIQ HJB 700</t>
   </si>
   <si>
-    <t>20039866</t>
-  </si>
-  <si>
-    <t>SO KLIN A/BACT 700ML</t>
-  </si>
-  <si>
     <t>20037446</t>
   </si>
   <si>
@@ -277,7 +271,7 @@
     <t>20138867</t>
   </si>
   <si>
-    <t>RNSO JAP PEACH 700ML</t>
+    <t>RNSO JAP PEACH 700G</t>
   </si>
   <si>
     <t>PT,(E-1.5B)</t>
@@ -289,6 +283,78 @@
     <t>RINSO PURE LIQ 510G</t>
   </si>
   <si>
+    <t>20120180</t>
+  </si>
+  <si>
+    <t>SO SOFT RS&amp;WTRLY 700</t>
+  </si>
+  <si>
+    <t>20121364</t>
+  </si>
+  <si>
+    <t>SO SOFT SKR BLSM 700</t>
+  </si>
+  <si>
+    <t>20135246</t>
+  </si>
+  <si>
+    <t>SO SOFT SWT PEONY700</t>
+  </si>
+  <si>
+    <t>20128720</t>
+  </si>
+  <si>
+    <t>SO SOFT FLO BRS 700</t>
+  </si>
+  <si>
+    <t>20140325</t>
+  </si>
+  <si>
+    <t>SO SOFT FLO LILY 700</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20131730</t>
+  </si>
+  <si>
+    <t>SYANG LIQ R/ROSE 700</t>
+  </si>
+  <si>
+    <t>RT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20132442</t>
+  </si>
+  <si>
+    <t>SYANG LIQ ORIGNAL700</t>
+  </si>
+  <si>
+    <t>20135849</t>
+  </si>
+  <si>
+    <t>LARIST SMR.BRZ 700ML</t>
+  </si>
+  <si>
+    <t>20135245</t>
+  </si>
+  <si>
+    <t>SO KLIN LIQ FRNCH700</t>
+  </si>
+  <si>
+    <t>20133798</t>
+  </si>
+  <si>
+    <t>SO KLIN LIQ EN.RS700</t>
+  </si>
+  <si>
+    <t>20139729</t>
+  </si>
+  <si>
+    <t>SOKLN GR.TEA&amp;JSM 700</t>
+  </si>
+  <si>
     <t>20113567</t>
   </si>
   <si>
@@ -313,82 +379,16 @@
     <t>GENTLE GEN A/KRGT700</t>
   </si>
   <si>
-    <t>20135849</t>
-  </si>
-  <si>
-    <t>LARIST SMR.BRZ 700ML</t>
-  </si>
-  <si>
-    <t>20132442</t>
-  </si>
-  <si>
-    <t>SYANG LIQ ORIGNAL700</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20131730</t>
-  </si>
-  <si>
-    <t>SYANG LIQ R/ROSE 700</t>
-  </si>
-  <si>
     <t>20139955</t>
   </si>
   <si>
     <t>BU KRM JNHAE CB700ML</t>
   </si>
   <si>
-    <t>20135245</t>
-  </si>
-  <si>
-    <t>SO KLIN LIQ FRNCH700</t>
-  </si>
-  <si>
-    <t>20133798</t>
-  </si>
-  <si>
-    <t>SO KLIN LIQ EN.RS700</t>
-  </si>
-  <si>
-    <t>20139729</t>
-  </si>
-  <si>
-    <t>SOKLN GR.TEA&amp;JSM 700</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>20120180</t>
-  </si>
-  <si>
-    <t>SO SOFT RS&amp;WTRLY 700</t>
-  </si>
-  <si>
-    <t>20121364</t>
-  </si>
-  <si>
-    <t>SO SOFT SKR BLSM 700</t>
-  </si>
-  <si>
-    <t>20135246</t>
-  </si>
-  <si>
-    <t>SO SOFT SWT PEONY700</t>
-  </si>
-  <si>
-    <t>20128720</t>
-  </si>
-  <si>
-    <t>SO SOFT FLO BRS 700</t>
-  </si>
-  <si>
     <t>20099414</t>
   </si>
   <si>
-    <t>SOKLIN SOFT PRPL 1.5</t>
+    <t>SOKLIN SOFT PRPL1.44</t>
   </si>
   <si>
     <t>20041483</t>
@@ -400,7 +400,7 @@
     <t>20073805</t>
   </si>
   <si>
-    <t>SOKLN RED/MG&amp;B 1.5KG</t>
+    <t>SOKLN RED/MG&amp;B1.44KG</t>
   </si>
   <si>
     <t>20140003</t>
@@ -502,6 +502,12 @@
     <t>12</t>
   </si>
   <si>
+    <t>20067586</t>
+  </si>
+  <si>
+    <t>SOKLIN LIQ.BM TOP700</t>
+  </si>
+  <si>
     <t>20131366</t>
   </si>
   <si>
@@ -550,7 +556,7 @@
     <t>20113101</t>
   </si>
   <si>
-    <t>ROYALE SWT FLORL 720</t>
+    <t>ROYALE SWT FLORL 680</t>
   </si>
   <si>
     <t>20104951</t>
@@ -568,13 +574,13 @@
     <t>20128706</t>
   </si>
   <si>
-    <t>ROYALE LNVDR VNL 720</t>
+    <t>ROYALE LNVDR VNL 680</t>
   </si>
   <si>
     <t>20113093</t>
   </si>
   <si>
-    <t>ROYALE SUNNY DAY 720</t>
+    <t>ROYALE SUNNY DAY 680</t>
   </si>
   <si>
     <t>20098312</t>
@@ -1009,7 +1015,7 @@
     <t>10014263</t>
   </si>
   <si>
-    <t>WIPOL KARBOL CMR 750</t>
+    <t>WIPOL KARBOL CMR 730</t>
   </si>
   <si>
     <t>23</t>
@@ -1018,13 +1024,13 @@
     <t>20001645</t>
   </si>
   <si>
-    <t>WIPOL KARBOL LMN 750</t>
+    <t>WIPOL KARBOL LMN 730</t>
   </si>
   <si>
     <t>20090066</t>
   </si>
   <si>
-    <t>WIPOL SRH + JRK 750</t>
+    <t>WIPOL SRH + JRK 730</t>
   </si>
   <si>
     <t>20122478</t>
@@ -1078,7 +1084,7 @@
     <t>10010480</t>
   </si>
   <si>
-    <t>SPR PELL FRS.APEL770</t>
+    <t>SPR PELL FRS.APEL760</t>
   </si>
   <si>
     <t>20121373</t>
@@ -1120,7 +1126,7 @@
     <t>20112492</t>
   </si>
   <si>
-    <t>SUNLIGHT LIME 420ML</t>
+    <t>SUNLIGHT LIME 430G</t>
   </si>
   <si>
     <t>25</t>
@@ -1162,12 +1168,6 @@
     <t>SO KLN LNT CT.GRD700</t>
   </si>
   <si>
-    <t>20041609</t>
-  </si>
-  <si>
-    <t>MR.MUSCLE P/KRMK 720</t>
-  </si>
-  <si>
     <t>20131788</t>
   </si>
   <si>
@@ -1198,7 +1198,7 @@
     <t>20136124</t>
   </si>
   <si>
-    <t>EKNOMI LIQ N&amp;JN 650</t>
+    <t>EKNOMI LIQ N&amp;JN 675G</t>
   </si>
   <si>
     <t>20128374</t>
@@ -1225,7 +1225,7 @@
     <t>10004067</t>
   </si>
   <si>
-    <t>MAMA/L PCH LEMON 680</t>
+    <t>MAMA/L PCH LEMON 690</t>
   </si>
   <si>
     <t>20099424</t>
@@ -1255,7 +1255,7 @@
     <t>20137792</t>
   </si>
   <si>
-    <t>MAMA LIME GREEN 680</t>
+    <t>MAMA LIME GREEN 690</t>
   </si>
   <si>
     <t>20129722</t>
@@ -1339,7 +1339,7 @@
     <t>10005482</t>
   </si>
   <si>
-    <t>SNLIGHT LIME PCH 650</t>
+    <t>SNLIGHT LIME PCH 660</t>
   </si>
   <si>
     <t>10013205</t>
@@ -1417,7 +1417,7 @@
     <t>10003359</t>
   </si>
   <si>
-    <t>WIPOL P.LNT BTL 750</t>
+    <t>WIPOL P.LNT BTL 730</t>
   </si>
   <si>
     <t>10000955</t>
@@ -1982,15 +1982,6 @@
   </si>
   <si>
     <t>VAPE FMK ORANGE 600</t>
-  </si>
-  <si>
-    <t>20114753</t>
-  </si>
-  <si>
-    <t>DOWNY ADRB.BQUET 600</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
 </sst>
 </file>
@@ -2383,14 +2374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F303"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="4" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3108,10 +3098,10 @@
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,18 +3118,18 @@
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -3148,10 +3138,10 @@
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,13 +3155,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,7 +3178,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -3208,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -3228,7 +3218,7 @@
         <v>30</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -3248,18 +3238,18 @@
         <v>30</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -3268,18 +3258,18 @@
         <v>30</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -3288,18 +3278,18 @@
         <v>30</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -3308,27 +3298,27 @@
         <v>30</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -3336,10 +3326,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -3348,7 +3338,7 @@
         <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -3356,10 +3346,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -3368,18 +3358,18 @@
         <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -3388,10 +3378,10 @@
         <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3408,7 +3398,7 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -3428,7 +3418,7 @@
         <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -3448,7 +3438,7 @@
         <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -3468,7 +3458,7 @@
         <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -3651,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3851,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,7 +3901,7 @@
         <v>27</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,7 +3921,7 @@
         <v>30</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,30 +3935,30 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -3985,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -4005,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -4025,10 +4015,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -4045,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -4065,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -4085,10 +4075,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -4105,13 +4095,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,33 +4115,33 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,10 +4155,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
@@ -4185,13 +4175,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,13 +4195,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4235,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,10 +4255,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>15</v>
@@ -4285,30 +4275,30 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>18</v>
@@ -4325,13 +4315,13 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,13 +4335,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,30 +4355,30 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -4405,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -4425,13 +4415,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,13 +4435,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,30 +4455,30 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>18</v>
@@ -4505,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
@@ -4525,13 +4515,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,13 +4535,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,30 +4555,30 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -4605,10 +4595,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -4625,13 +4615,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,10 +4635,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>18</v>
@@ -4665,13 +4655,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,33 +4675,33 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,13 +4715,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,10 +4735,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4765,10 +4755,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4785,13 +4775,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,13 +4795,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,13 +4815,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,13 +4835,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,13 +4855,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,30 +4875,30 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -4925,10 +4915,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -4945,10 +4935,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
@@ -4965,10 +4955,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>5</v>
@@ -4985,10 +4975,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -5005,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -5025,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -5045,30 +5035,30 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>18</v>
@@ -5085,10 +5075,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>18</v>
@@ -5105,13 +5095,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5125,33 +5115,33 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,13 +5155,13 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,10 +5175,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>18</v>
@@ -5205,10 +5195,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>18</v>
@@ -5225,30 +5215,30 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E143" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -5265,33 +5255,33 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>320</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,13 +5295,13 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,13 +5315,13 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>51</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,13 +5335,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,10 +5355,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -5385,30 +5375,30 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>18</v>
@@ -5425,10 +5415,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>18</v>
@@ -5445,10 +5435,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>18</v>
@@ -5465,13 +5455,13 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -5505,13 +5495,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,13 +5515,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,33 +5535,33 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="E159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,13 +5575,13 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>18</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5605,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>18</v>
@@ -5625,13 +5615,13 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,13 +5635,13 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,10 +5655,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>51</v>
@@ -5685,10 +5675,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>51</v>
@@ -5705,10 +5695,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>51</v>
@@ -5725,33 +5715,33 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E168" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,10 +5755,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5785,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5805,10 +5795,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5825,10 +5815,10 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5845,10 +5835,10 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5865,13 +5855,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5971,7 +5961,7 @@
         <v>27</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6131,7 +6121,7 @@
         <v>30</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6151,7 +6141,7 @@
         <v>33</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6231,7 +6221,7 @@
         <v>11</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6291,7 +6281,7 @@
         <v>30</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6351,7 +6341,7 @@
         <v>11</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6491,7 +6481,7 @@
         <v>14</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6531,7 +6521,7 @@
         <v>30</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6551,7 +6541,7 @@
         <v>33</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6571,7 +6561,7 @@
         <v>36</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6591,7 +6581,7 @@
         <v>56</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,7 +6661,7 @@
         <v>14</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6691,7 +6681,7 @@
         <v>27</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6771,7 +6761,7 @@
         <v>56</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6811,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6831,7 +6821,7 @@
         <v>8</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6851,7 +6841,7 @@
         <v>11</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6871,7 +6861,7 @@
         <v>14</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6891,7 +6881,7 @@
         <v>27</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,7 +6901,7 @@
         <v>30</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,7 +6921,7 @@
         <v>33</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +6941,7 @@
         <v>36</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,7 +6961,7 @@
         <v>56</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,7 +6981,7 @@
         <v>142</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,7 +7001,7 @@
         <v>151</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7031,7 +7021,7 @@
         <v>162</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7048,10 +7038,10 @@
         <v>486</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7068,10 +7058,10 @@
         <v>486</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,10 +7078,10 @@
         <v>486</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -7111,7 +7101,7 @@
         <v>4</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -7131,7 +7121,7 @@
         <v>8</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -7151,7 +7141,7 @@
         <v>11</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -7171,7 +7161,7 @@
         <v>14</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -7191,7 +7181,7 @@
         <v>27</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -7211,7 +7201,7 @@
         <v>30</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7231,7 +7221,7 @@
         <v>33</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7251,7 +7241,7 @@
         <v>36</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7271,7 +7261,7 @@
         <v>56</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7348,10 +7338,10 @@
         <v>517</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7368,10 +7358,10 @@
         <v>517</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7388,10 +7378,10 @@
         <v>517</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7408,10 +7398,10 @@
         <v>517</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7428,10 +7418,10 @@
         <v>517</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7451,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7471,7 +7461,7 @@
         <v>8</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7491,7 +7481,7 @@
         <v>11</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7511,7 +7501,7 @@
         <v>14</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7551,7 +7541,7 @@
         <v>30</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7571,7 +7561,7 @@
         <v>33</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7591,7 +7581,7 @@
         <v>36</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7611,7 +7601,7 @@
         <v>56</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7631,7 +7621,7 @@
         <v>142</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,7 +7641,7 @@
         <v>151</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7671,7 +7661,7 @@
         <v>162</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7731,7 +7721,7 @@
         <v>11</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7751,7 +7741,7 @@
         <v>14</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7771,7 +7761,7 @@
         <v>27</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7791,7 +7781,7 @@
         <v>30</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7811,7 +7801,7 @@
         <v>33</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7831,7 +7821,7 @@
         <v>36</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,7 +7901,7 @@
         <v>162</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7928,10 +7918,10 @@
         <v>577</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7951,7 +7941,7 @@
         <v>4</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7971,7 +7961,7 @@
         <v>8</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7991,7 +7981,7 @@
         <v>11</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -8031,7 +8021,7 @@
         <v>27</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8051,7 +8041,7 @@
         <v>30</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -8071,7 +8061,7 @@
         <v>33</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -8111,7 +8101,7 @@
         <v>56</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -8131,7 +8121,7 @@
         <v>142</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8188,10 +8178,10 @@
         <v>604</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -8211,7 +8201,7 @@
         <v>4</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8231,7 +8221,7 @@
         <v>8</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8251,7 +8241,7 @@
         <v>11</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8291,7 +8281,7 @@
         <v>27</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -8311,7 +8301,7 @@
         <v>30</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,7 +8321,7 @@
         <v>33</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -8351,7 +8341,7 @@
         <v>36</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -8448,30 +8438,10 @@
         <v>632</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/DND05S.xlsx
+++ b/DND05S.xlsx
@@ -61,6 +61,18 @@
     <t>PT,(E-1B)</t>
   </si>
   <si>
+    <t>20140804</t>
+  </si>
+  <si>
+    <t>SO KLN EDP BLNC 1.44</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>20123338</t>
   </si>
   <si>
@@ -94,9 +106,6 @@
     <t>GENTLE GEN FR.PE 360</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>20131374</t>
   </si>
   <si>
@@ -313,9 +322,6 @@
     <t>SO SOFT FLO LILY 700</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
     <t>20131730</t>
   </si>
   <si>
@@ -751,12 +757,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>20131220</t>
-  </si>
-  <si>
-    <t>SO KLN PNY&amp;ROSE 400G</t>
-  </si>
-  <si>
     <t>20042466</t>
   </si>
   <si>
@@ -982,16 +982,16 @@
     <t>RT,(E-3.5B)</t>
   </si>
   <si>
+    <t>20082581</t>
+  </si>
+  <si>
+    <t>VANISH CAIR WHT 425</t>
+  </si>
+  <si>
     <t>20052662</t>
   </si>
   <si>
     <t>VANISH CAIR PCH 425</t>
-  </si>
-  <si>
-    <t>20082581</t>
-  </si>
-  <si>
-    <t>VANISH CAIR WHT 425</t>
   </si>
   <si>
     <t>20089665</t>
@@ -2495,21 +2495,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -2518,18 +2518,18 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -2538,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -2558,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -2578,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -2598,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,21 +2655,21 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -2678,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -2698,7 +2698,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -2718,7 +2718,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -2738,7 +2738,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -2781,7 +2781,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,15 +2801,15 @@
         <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -2818,10 +2818,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,21 +2835,21 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -2858,18 +2858,18 @@
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -2878,18 +2878,18 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -2898,18 +2898,18 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -2918,18 +2918,18 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -2938,18 +2938,18 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -2998,7 +2998,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -3026,19 +3026,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -3066,19 +3066,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -3086,42 +3086,42 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,50 +3135,50 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -3186,19 +3186,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -3206,19 +3206,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -3226,22 +3226,22 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,33 +3255,33 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,13 +3295,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,10 +3318,10 @@
         <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,10 +3335,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -3355,13 +3355,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,13 +3375,13 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,10 +3395,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -3415,10 +3415,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -3435,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>33</v>
@@ -3455,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>36</v>
@@ -3478,7 +3478,7 @@
         <v>36</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -3495,10 +3495,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -3515,10 +3515,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -3535,13 +3535,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,13 +3555,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3575,10 +3575,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -3595,10 +3595,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -3615,10 +3615,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -3635,33 +3635,33 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3695,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3715,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -3726,19 +3726,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -3755,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3775,10 +3775,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -3795,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -3815,33 +3815,33 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,13 +3855,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3875,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,13 +3895,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,13 +3915,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,13 +3935,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,30 +3955,30 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3995,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -4015,10 +4015,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -4035,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -4055,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -4075,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>33</v>
@@ -4095,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>36</v>
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4135,33 +4135,33 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
@@ -4195,13 +4195,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,13 +4235,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4255,13 +4255,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>36</v>
@@ -4295,33 +4295,33 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,13 +4335,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,13 +4355,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,30 +4375,30 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -4415,10 +4415,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -4435,13 +4435,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,13 +4455,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,33 +4475,33 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4515,13 +4515,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4535,13 +4535,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4555,13 +4555,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,30 +4575,30 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -4615,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -4635,13 +4635,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4655,13 +4655,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,10 +4675,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>15</v>
@@ -4721,7 +4721,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4778,7 +4778,7 @@
         <v>258</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -4798,10 +4798,10 @@
         <v>258</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4818,10 +4818,10 @@
         <v>258</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4838,10 +4838,10 @@
         <v>258</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4858,10 +4858,10 @@
         <v>258</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4878,10 +4878,10 @@
         <v>258</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>280</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4998,7 +4998,7 @@
         <v>280</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -5018,7 +5018,7 @@
         <v>280</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -5038,7 +5038,7 @@
         <v>280</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
         <v>11</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>14</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5138,7 +5138,7 @@
         <v>297</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>306</v>
@@ -5158,7 +5158,7 @@
         <v>297</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>306</v>
@@ -5178,10 +5178,10 @@
         <v>297</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,10 +5198,10 @@
         <v>297</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,10 +5218,10 @@
         <v>297</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
         <v>317</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>322</v>
@@ -5338,10 +5338,10 @@
         <v>317</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
         <v>317</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -5378,7 +5378,7 @@
         <v>317</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5</v>
@@ -5401,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5421,7 +5421,7 @@
         <v>8</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
         <v>11</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
         <v>14</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5478,7 +5478,7 @@
         <v>335</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -5498,7 +5498,7 @@
         <v>335</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -5518,10 +5518,10 @@
         <v>335</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5538,10 +5538,10 @@
         <v>335</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5601,7 +5601,7 @@
         <v>11</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
         <v>14</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5638,7 +5638,7 @@
         <v>352</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>15</v>
@@ -5658,10 +5658,10 @@
         <v>352</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5678,10 +5678,10 @@
         <v>352</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5698,10 +5698,10 @@
         <v>352</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5718,10 +5718,10 @@
         <v>352</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5741,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,7 +5818,7 @@
         <v>372</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5838,7 +5838,7 @@
         <v>372</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5858,7 +5858,7 @@
         <v>372</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5958,10 +5958,10 @@
         <v>387</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5978,10 +5978,10 @@
         <v>387</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5998,10 +5998,10 @@
         <v>387</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
         <v>402</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -6118,10 +6118,10 @@
         <v>402</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,10 +6138,10 @@
         <v>402</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
         <v>402</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
@@ -6181,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
         <v>14</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6258,10 +6258,10 @@
         <v>419</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6278,10 +6278,10 @@
         <v>419</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6301,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
         <v>8</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6341,7 +6341,7 @@
         <v>11</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6361,7 +6361,7 @@
         <v>14</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6378,10 +6378,10 @@
         <v>432</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6398,10 +6398,10 @@
         <v>432</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6441,7 +6441,7 @@
         <v>8</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,7 +6461,7 @@
         <v>11</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6481,7 +6481,7 @@
         <v>14</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6498,10 +6498,10 @@
         <v>445</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>445</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6538,10 +6538,10 @@
         <v>445</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,7 +6558,7 @@
         <v>445</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>353</v>
@@ -6578,7 +6578,7 @@
         <v>445</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>322</v>
@@ -6601,7 +6601,7 @@
         <v>4</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6621,7 +6621,7 @@
         <v>8</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6641,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6661,7 +6661,7 @@
         <v>14</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6678,7 +6678,7 @@
         <v>464</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>306</v>
@@ -6698,7 +6698,7 @@
         <v>464</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>5</v>
@@ -6718,10 +6718,10 @@
         <v>464</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>464</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>479</v>
@@ -6758,7 +6758,7 @@
         <v>464</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>322</v>
@@ -6778,7 +6778,7 @@
         <v>464</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>479</v>
@@ -6878,7 +6878,7 @@
         <v>486</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>306</v>
@@ -6898,7 +6898,7 @@
         <v>486</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>322</v>
@@ -6918,7 +6918,7 @@
         <v>486</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>306</v>
@@ -6938,7 +6938,7 @@
         <v>486</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>353</v>
@@ -6958,7 +6958,7 @@
         <v>486</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>322</v>
@@ -6978,7 +6978,7 @@
         <v>486</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>322</v>
@@ -6998,10 +6998,10 @@
         <v>486</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7018,10 +7018,10 @@
         <v>486</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7038,10 +7038,10 @@
         <v>486</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7058,7 +7058,7 @@
         <v>486</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>322</v>
@@ -7078,10 +7078,10 @@
         <v>486</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
         <v>4</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -7178,7 +7178,7 @@
         <v>517</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>306</v>
@@ -7198,7 +7198,7 @@
         <v>517</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>306</v>
@@ -7218,10 +7218,10 @@
         <v>517</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7238,10 +7238,10 @@
         <v>517</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7258,10 +7258,10 @@
         <v>517</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7278,7 +7278,7 @@
         <v>517</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>5</v>
@@ -7298,7 +7298,7 @@
         <v>517</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>5</v>
@@ -7318,7 +7318,7 @@
         <v>517</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>5</v>
@@ -7338,7 +7338,7 @@
         <v>517</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>306</v>
@@ -7358,7 +7358,7 @@
         <v>517</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>306</v>
@@ -7378,7 +7378,7 @@
         <v>517</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>306</v>
@@ -7398,10 +7398,10 @@
         <v>517</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7418,10 +7418,10 @@
         <v>517</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7518,7 +7518,7 @@
         <v>552</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>5</v>
@@ -7538,10 +7538,10 @@
         <v>552</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7558,10 +7558,10 @@
         <v>552</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7578,10 +7578,10 @@
         <v>552</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7598,7 +7598,7 @@
         <v>552</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>259</v>
@@ -7618,7 +7618,7 @@
         <v>552</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>259</v>
@@ -7638,7 +7638,7 @@
         <v>552</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>322</v>
@@ -7658,7 +7658,7 @@
         <v>552</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>322</v>
@@ -7758,7 +7758,7 @@
         <v>577</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>322</v>
@@ -7778,7 +7778,7 @@
         <v>577</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>322</v>
@@ -7798,7 +7798,7 @@
         <v>577</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>322</v>
@@ -7818,7 +7818,7 @@
         <v>577</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>322</v>
@@ -7838,7 +7838,7 @@
         <v>577</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>5</v>
@@ -7858,7 +7858,7 @@
         <v>577</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>5</v>
@@ -7878,7 +7878,7 @@
         <v>577</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>5</v>
@@ -7898,10 +7898,10 @@
         <v>577</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,10 +7918,10 @@
         <v>577</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -8018,7 +8018,7 @@
         <v>604</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>322</v>
@@ -8038,7 +8038,7 @@
         <v>604</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>322</v>
@@ -8058,7 +8058,7 @@
         <v>604</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>322</v>
@@ -8078,7 +8078,7 @@
         <v>604</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>5</v>
@@ -8098,7 +8098,7 @@
         <v>604</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>322</v>
@@ -8118,7 +8118,7 @@
         <v>604</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>322</v>
@@ -8138,7 +8138,7 @@
         <v>604</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>5</v>
@@ -8158,7 +8158,7 @@
         <v>604</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>5</v>
@@ -8178,7 +8178,7 @@
         <v>604</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>322</v>
@@ -8278,7 +8278,7 @@
         <v>632</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>353</v>
@@ -8298,7 +8298,7 @@
         <v>632</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>322</v>
@@ -8318,7 +8318,7 @@
         <v>632</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>322</v>
@@ -8338,7 +8338,7 @@
         <v>632</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>322</v>
@@ -8358,7 +8358,7 @@
         <v>632</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>5</v>
@@ -8378,7 +8378,7 @@
         <v>632</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>5</v>
@@ -8398,7 +8398,7 @@
         <v>632</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>5</v>
@@ -8418,7 +8418,7 @@
         <v>632</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>5</v>
@@ -8438,10 +8438,10 @@
         <v>632</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DND05S.xlsx
+++ b/DND05S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="660">
   <si>
     <t/>
   </si>
@@ -61,336 +61,348 @@
     <t>PT,(E-1B)</t>
   </si>
   <si>
+    <t>10014547</t>
+  </si>
+  <si>
+    <t>DAIA DTRG.BBK BGA1.5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20123338</t>
+  </si>
+  <si>
+    <t>RNSO+ML LIQ RS1.45KG</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>20109454</t>
+  </si>
+  <si>
+    <t>SOKLIN CAIR SCRLT1.6</t>
+  </si>
+  <si>
+    <t>20099420</t>
+  </si>
+  <si>
+    <t>SOKLIN CAIR VIO 1.6L</t>
+  </si>
+  <si>
+    <t>20128710</t>
+  </si>
+  <si>
+    <t>GENTLE GEN MR.BRZ360</t>
+  </si>
+  <si>
+    <t>20131373</t>
+  </si>
+  <si>
+    <t>GENTLE GEN FR.PE 360</t>
+  </si>
+  <si>
+    <t>20131374</t>
+  </si>
+  <si>
+    <t>GENTLE GEN PRS.G 360</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20134544</t>
+  </si>
+  <si>
+    <t>RINSO DET JPN.PCH360</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20134545</t>
+  </si>
+  <si>
+    <t>RINSO DET KRN.STR360</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20113809</t>
+  </si>
+  <si>
+    <t>OXYKLIN DTRG LIQ 700</t>
+  </si>
+  <si>
+    <t>20133212</t>
+  </si>
+  <si>
+    <t>BOOM DET.CAIR RSE510</t>
+  </si>
+  <si>
+    <t>20133213</t>
+  </si>
+  <si>
+    <t>BOOM DET.CAIR LAV510</t>
+  </si>
+  <si>
+    <t>20123019</t>
+  </si>
+  <si>
+    <t>SAYANG LIQ ROSE 510</t>
+  </si>
+  <si>
+    <t>20134103</t>
+  </si>
+  <si>
+    <t>ATTACK GEL S.CNTA515</t>
+  </si>
+  <si>
+    <t>20138111</t>
+  </si>
+  <si>
+    <t>JAZ 1 ROSE BERY 515G</t>
+  </si>
+  <si>
+    <t>20097739</t>
+  </si>
+  <si>
+    <t>IDM DET.CAIR PCH 700</t>
+  </si>
+  <si>
+    <t>PT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20129837</t>
+  </si>
+  <si>
+    <t>LARIST SPR.GRD 750ML</t>
+  </si>
+  <si>
+    <t>20090425</t>
+  </si>
+  <si>
+    <t>IDM SOFT DET BTK 450</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20054750</t>
+  </si>
+  <si>
+    <t>RNSO+ML LIQ PRFM 510</t>
+  </si>
+  <si>
+    <t>20093188</t>
+  </si>
+  <si>
+    <t>RINSO MLTO GLD LQ510</t>
+  </si>
+  <si>
+    <t>20122879</t>
+  </si>
+  <si>
+    <t>RNSO MLTO KRN STR510</t>
+  </si>
+  <si>
+    <t>20104950</t>
+  </si>
+  <si>
+    <t>RINSO MLTO JP/PCH510</t>
+  </si>
+  <si>
+    <t>20137793</t>
+  </si>
+  <si>
+    <t>RINSO ROSE FRESH 510</t>
+  </si>
+  <si>
+    <t>20093627</t>
+  </si>
+  <si>
+    <t>SOKLN LIQ SAKURA 510</t>
+  </si>
+  <si>
+    <t>20123818</t>
+  </si>
+  <si>
+    <t>SOKLN LIQ LVNDR 510</t>
+  </si>
+  <si>
+    <t>20091870</t>
+  </si>
+  <si>
+    <t>SO KLN LIQ WH&amp;BR 510</t>
+  </si>
+  <si>
+    <t>20114428</t>
+  </si>
+  <si>
+    <t>SOKLN LIQ KOREAN 510</t>
+  </si>
+  <si>
+    <t>20067585</t>
+  </si>
+  <si>
+    <t>SOKLN LIQ RED SB 700</t>
+  </si>
+  <si>
+    <t>20054747</t>
+  </si>
+  <si>
+    <t>SO KLIN VL/BLSOM 700</t>
+  </si>
+  <si>
+    <t>20046548</t>
+  </si>
+  <si>
+    <t>SOKLIN SOFT CAIR 700</t>
+  </si>
+  <si>
+    <t>20137791</t>
+  </si>
+  <si>
+    <t>SO KLIN LIQ HJB 700</t>
+  </si>
+  <si>
+    <t>20037446</t>
+  </si>
+  <si>
+    <t>RNSO+ML LIQ ROSE 700</t>
+  </si>
+  <si>
+    <t>20138867</t>
+  </si>
+  <si>
+    <t>RNSO JAP PEACH 700G</t>
+  </si>
+  <si>
+    <t>PT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20140001</t>
+  </si>
+  <si>
+    <t>RINSO PURE LIQ 510G</t>
+  </si>
+  <si>
+    <t>20120180</t>
+  </si>
+  <si>
+    <t>SO SOFT RS&amp;WTRLY 700</t>
+  </si>
+  <si>
+    <t>20121364</t>
+  </si>
+  <si>
+    <t>SO SOFT SKR BLSM 700</t>
+  </si>
+  <si>
+    <t>20135246</t>
+  </si>
+  <si>
+    <t>SO SOFT SWT PEONY700</t>
+  </si>
+  <si>
+    <t>20128720</t>
+  </si>
+  <si>
+    <t>SO SOFT FLO BRS 700</t>
+  </si>
+  <si>
+    <t>20140325</t>
+  </si>
+  <si>
+    <t>SO SOFT FLO LILY 700</t>
+  </si>
+  <si>
+    <t>20131730</t>
+  </si>
+  <si>
+    <t>SYANG LIQ R/ROSE 700</t>
+  </si>
+  <si>
+    <t>RT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20132442</t>
+  </si>
+  <si>
+    <t>SYANG LIQ ORIGNAL700</t>
+  </si>
+  <si>
+    <t>20135849</t>
+  </si>
+  <si>
+    <t>LARIST SMR.BRZ 700ML</t>
+  </si>
+  <si>
+    <t>20135245</t>
+  </si>
+  <si>
+    <t>SO KLIN LIQ FRNCH700</t>
+  </si>
+  <si>
+    <t>20133798</t>
+  </si>
+  <si>
+    <t>SO KLIN LIQ EN.RS700</t>
+  </si>
+  <si>
+    <t>20139729</t>
+  </si>
+  <si>
+    <t>SOKLN GR.TEA&amp;JSM 700</t>
+  </si>
+  <si>
+    <t>20113567</t>
+  </si>
+  <si>
+    <t>GENTLE GEN MR.BRZ700</t>
+  </si>
+  <si>
+    <t>20115959</t>
+  </si>
+  <si>
+    <t>GENTLE GEN FR.PE 700</t>
+  </si>
+  <si>
+    <t>20115958</t>
+  </si>
+  <si>
+    <t>GENTLE GEN PRS.G 700</t>
+  </si>
+  <si>
+    <t>20133333</t>
+  </si>
+  <si>
+    <t>GENTLE GEN A/KRGT700</t>
+  </si>
+  <si>
+    <t>20139955</t>
+  </si>
+  <si>
+    <t>BU KRM JNHAE CB700ML</t>
+  </si>
+  <si>
+    <t>20140806</t>
+  </si>
+  <si>
+    <t>SO KLN EDP D.LS 144</t>
+  </si>
+  <si>
     <t>20140804</t>
   </si>
   <si>
     <t>SO KLN EDP BLNC 1.44</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>20123338</t>
-  </si>
-  <si>
-    <t>RNSO+ML LIQ RS1.45KG</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>20109454</t>
-  </si>
-  <si>
-    <t>SOKLIN CAIR SCRLT1.6</t>
-  </si>
-  <si>
-    <t>20099420</t>
-  </si>
-  <si>
-    <t>SOKLIN CAIR VIO 1.6L</t>
-  </si>
-  <si>
-    <t>20128710</t>
-  </si>
-  <si>
-    <t>GENTLE GEN MR.BRZ360</t>
-  </si>
-  <si>
-    <t>20131373</t>
-  </si>
-  <si>
-    <t>GENTLE GEN FR.PE 360</t>
-  </si>
-  <si>
-    <t>20131374</t>
-  </si>
-  <si>
-    <t>GENTLE GEN PRS.G 360</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20134544</t>
-  </si>
-  <si>
-    <t>RINSO DET JPN.PCH360</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20134545</t>
-  </si>
-  <si>
-    <t>RINSO DET KRN.STR360</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20113809</t>
-  </si>
-  <si>
-    <t>OXYKLIN DTRG LIQ 700</t>
-  </si>
-  <si>
-    <t>20133212</t>
-  </si>
-  <si>
-    <t>BOOM DET.CAIR RSE510</t>
-  </si>
-  <si>
-    <t>20133213</t>
-  </si>
-  <si>
-    <t>BOOM DET.CAIR LAV510</t>
-  </si>
-  <si>
-    <t>20123019</t>
-  </si>
-  <si>
-    <t>SAYANG LIQ ROSE 510</t>
-  </si>
-  <si>
-    <t>20134103</t>
-  </si>
-  <si>
-    <t>ATTACK GEL S.CNTA515</t>
-  </si>
-  <si>
-    <t>20138111</t>
-  </si>
-  <si>
-    <t>JAZ 1 ROSE BERY 515G</t>
-  </si>
-  <si>
-    <t>20097739</t>
-  </si>
-  <si>
-    <t>IDM DET.CAIR PCH 700</t>
-  </si>
-  <si>
-    <t>PT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20129837</t>
-  </si>
-  <si>
-    <t>LARIST SPR.GRD 750ML</t>
-  </si>
-  <si>
-    <t>20090425</t>
-  </si>
-  <si>
-    <t>IDM SOFT DET BTK 450</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20054750</t>
-  </si>
-  <si>
-    <t>RNSO+ML LIQ PRFM 510</t>
-  </si>
-  <si>
-    <t>20093188</t>
-  </si>
-  <si>
-    <t>RINSO MLTO GLD LQ510</t>
-  </si>
-  <si>
-    <t>20122879</t>
-  </si>
-  <si>
-    <t>RNSO MLTO KRN STR510</t>
-  </si>
-  <si>
-    <t>20104950</t>
-  </si>
-  <si>
-    <t>RINSO MLTO JP/PCH510</t>
-  </si>
-  <si>
-    <t>20137793</t>
-  </si>
-  <si>
-    <t>RINSO ROSE FRESH 510</t>
-  </si>
-  <si>
-    <t>20093627</t>
-  </si>
-  <si>
-    <t>SOKLN LIQ SAKURA 510</t>
-  </si>
-  <si>
-    <t>20123818</t>
-  </si>
-  <si>
-    <t>SOKLN LIQ LVNDR 510</t>
-  </si>
-  <si>
-    <t>20091870</t>
-  </si>
-  <si>
-    <t>SO KLN LIQ WH&amp;BR 510</t>
-  </si>
-  <si>
-    <t>20114428</t>
-  </si>
-  <si>
-    <t>SOKLN LIQ KOREAN 510</t>
-  </si>
-  <si>
-    <t>20067585</t>
-  </si>
-  <si>
-    <t>SOKLN LIQ RED SB 700</t>
-  </si>
-  <si>
-    <t>20054747</t>
-  </si>
-  <si>
-    <t>SO KLIN VL/BLSOM 700</t>
-  </si>
-  <si>
-    <t>20046548</t>
-  </si>
-  <si>
-    <t>SOKLIN SOFT CAIR 700</t>
-  </si>
-  <si>
-    <t>20137791</t>
-  </si>
-  <si>
-    <t>SO KLIN LIQ HJB 700</t>
-  </si>
-  <si>
-    <t>20037446</t>
-  </si>
-  <si>
-    <t>RNSO+ML LIQ ROSE 700</t>
-  </si>
-  <si>
-    <t>20138867</t>
-  </si>
-  <si>
-    <t>RNSO JAP PEACH 700G</t>
-  </si>
-  <si>
-    <t>PT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20140001</t>
-  </si>
-  <si>
-    <t>RINSO PURE LIQ 510G</t>
-  </si>
-  <si>
-    <t>20120180</t>
-  </si>
-  <si>
-    <t>SO SOFT RS&amp;WTRLY 700</t>
-  </si>
-  <si>
-    <t>20121364</t>
-  </si>
-  <si>
-    <t>SO SOFT SKR BLSM 700</t>
-  </si>
-  <si>
-    <t>20135246</t>
-  </si>
-  <si>
-    <t>SO SOFT SWT PEONY700</t>
-  </si>
-  <si>
-    <t>20128720</t>
-  </si>
-  <si>
-    <t>SO SOFT FLO BRS 700</t>
-  </si>
-  <si>
-    <t>20140325</t>
-  </si>
-  <si>
-    <t>SO SOFT FLO LILY 700</t>
-  </si>
-  <si>
-    <t>20131730</t>
-  </si>
-  <si>
-    <t>SYANG LIQ R/ROSE 700</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20132442</t>
-  </si>
-  <si>
-    <t>SYANG LIQ ORIGNAL700</t>
-  </si>
-  <si>
-    <t>20135849</t>
-  </si>
-  <si>
-    <t>LARIST SMR.BRZ 700ML</t>
-  </si>
-  <si>
-    <t>20135245</t>
-  </si>
-  <si>
-    <t>SO KLIN LIQ FRNCH700</t>
-  </si>
-  <si>
-    <t>20133798</t>
-  </si>
-  <si>
-    <t>SO KLIN LIQ EN.RS700</t>
-  </si>
-  <si>
-    <t>20139729</t>
-  </si>
-  <si>
-    <t>SOKLN GR.TEA&amp;JSM 700</t>
-  </si>
-  <si>
-    <t>20113567</t>
-  </si>
-  <si>
-    <t>GENTLE GEN MR.BRZ700</t>
-  </si>
-  <si>
-    <t>20115959</t>
-  </si>
-  <si>
-    <t>GENTLE GEN FR.PE 700</t>
-  </si>
-  <si>
-    <t>20115958</t>
-  </si>
-  <si>
-    <t>GENTLE GEN PRS.G 700</t>
-  </si>
-  <si>
-    <t>20133333</t>
-  </si>
-  <si>
-    <t>GENTLE GEN A/KRGT700</t>
-  </si>
-  <si>
-    <t>20139955</t>
-  </si>
-  <si>
-    <t>BU KRM JNHAE CB700ML</t>
-  </si>
-  <si>
     <t>20099414</t>
   </si>
   <si>
@@ -403,55 +415,1573 @@
     <t>SO/KLN SOFT P/RS1.44</t>
   </si>
   <si>
+    <t>20052321</t>
+  </si>
+  <si>
+    <t>DAIA+SOFT PINK 1.5KG</t>
+  </si>
+  <si>
+    <t>20091352</t>
+  </si>
+  <si>
+    <t>DAIA+SOFT VIOLET 1.5</t>
+  </si>
+  <si>
+    <t>20030446</t>
+  </si>
+  <si>
+    <t>DAIA PUTIH 1.5KG</t>
+  </si>
+  <si>
+    <t>20121050</t>
+  </si>
+  <si>
+    <t>DAIA HIJAB C&amp;F 1.5G</t>
+  </si>
+  <si>
+    <t>20053796</t>
+  </si>
+  <si>
+    <t>SOKLN SOFTG PRPL 720</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20073499</t>
+  </si>
+  <si>
+    <t>SO KLN MGNL&amp;BRY 720G</t>
+  </si>
+  <si>
+    <t>20012188</t>
+  </si>
+  <si>
+    <t>SOKLN SOFTR ROSY 720</t>
+  </si>
+  <si>
+    <t>20131792</t>
+  </si>
+  <si>
+    <t>BOOM DET.BBK LVND770</t>
+  </si>
+  <si>
+    <t>20123022</t>
+  </si>
+  <si>
+    <t>SAYANG PWDR ROSE 770</t>
+  </si>
+  <si>
+    <t>20061748</t>
+  </si>
+  <si>
+    <t>DAIA DET+SFT VLT 800</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20036047</t>
+  </si>
+  <si>
+    <t>DAIA DET+SOFT  800G</t>
+  </si>
+  <si>
+    <t>20012007</t>
+  </si>
+  <si>
+    <t>DAIA DET.BBK PTH 800</t>
+  </si>
+  <si>
+    <t>10005245</t>
+  </si>
+  <si>
+    <t>DAIA BBK FLORAL 800G</t>
+  </si>
+  <si>
+    <t>20074992</t>
+  </si>
+  <si>
+    <t>BUKRIM OXY/K VIOL700</t>
+  </si>
+  <si>
+    <t>20125692</t>
+  </si>
+  <si>
+    <t>IDM DET MATIC 700ML</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20067586</t>
+  </si>
+  <si>
+    <t>SOKLIN LIQ.BM TOP700</t>
+  </si>
+  <si>
+    <t>20131366</t>
+  </si>
+  <si>
+    <t>RINSO LIQ.MTC TOP700</t>
+  </si>
+  <si>
+    <t>20054610</t>
+  </si>
+  <si>
+    <t>RINSO LIQ FRONT 1.45</t>
+  </si>
+  <si>
+    <t>20086327</t>
+  </si>
+  <si>
+    <t>RINSO MTC FRN/L 900G</t>
+  </si>
+  <si>
+    <t>10030924</t>
+  </si>
+  <si>
+    <t>SOKLIN MTC F/LD 900G</t>
+  </si>
+  <si>
+    <t>20119238</t>
+  </si>
+  <si>
+    <t>TOTAL DET.PERFUME750</t>
+  </si>
+  <si>
+    <t>20081448</t>
+  </si>
+  <si>
+    <t>ROYALE SOFT H.SM 650</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20081449</t>
+  </si>
+  <si>
+    <t>ROYALE SOFT P.DW 650</t>
+  </si>
+  <si>
+    <t>20113101</t>
+  </si>
+  <si>
+    <t>ROYALE SWT FLORL 680</t>
+  </si>
+  <si>
+    <t>20104951</t>
+  </si>
+  <si>
+    <t>ROYALE HJB BLCK.V650</t>
+  </si>
+  <si>
+    <t>20091457</t>
+  </si>
+  <si>
+    <t>ROYALE SOFT BS 650</t>
+  </si>
+  <si>
+    <t>20128706</t>
+  </si>
+  <si>
+    <t>ROYALE LNVDR VNL 680</t>
+  </si>
+  <si>
+    <t>20113093</t>
+  </si>
+  <si>
+    <t>ROYALE SUNNY DAY 680</t>
+  </si>
+  <si>
+    <t>20098312</t>
+  </si>
+  <si>
+    <t>ROYALE PINK STN 650</t>
+  </si>
+  <si>
+    <t>20126740</t>
+  </si>
+  <si>
+    <t>MOLTO FRSH.CSBLCA650</t>
+  </si>
+  <si>
+    <t>20094735</t>
+  </si>
+  <si>
+    <t>DOWNY SUNRISE 950</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>PT,(E-0.5B)</t>
+  </si>
+  <si>
+    <t>20094733</t>
+  </si>
+  <si>
+    <t>DOWNY MYSTIQUE 850</t>
+  </si>
+  <si>
+    <t>20140221</t>
+  </si>
+  <si>
+    <t>DOWNY PASSION 950ML</t>
+  </si>
+  <si>
+    <t>20074226</t>
+  </si>
+  <si>
+    <t>DOWNY SUN.FRSH 600</t>
+  </si>
+  <si>
+    <t>20080360</t>
+  </si>
+  <si>
+    <t>DOWNY MYSTIQUE 600ML</t>
+  </si>
+  <si>
+    <t>20080361</t>
+  </si>
+  <si>
+    <t>DOWNY PASSION 600ML</t>
+  </si>
+  <si>
+    <t>20087479</t>
+  </si>
+  <si>
+    <t>DOWNY FLO.PINK 600ML</t>
+  </si>
+  <si>
+    <t>20139145</t>
+  </si>
+  <si>
+    <t>DOWNY MLKY TOUCH 500</t>
+  </si>
+  <si>
     <t>20073805</t>
   </si>
   <si>
     <t>SOKLN RED/MG&amp;B1.44KG</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>20140003</t>
   </si>
   <si>
     <t>RNSO PWD ROSE.F 1.44</t>
   </si>
   <si>
-    <t>20052321</t>
-  </si>
-  <si>
-    <t>DAIA+SOFT PINK 1.5KG</t>
-  </si>
-  <si>
-    <t>20091352</t>
-  </si>
-  <si>
-    <t>DAIA+SOFT VIOLET 1.5</t>
-  </si>
-  <si>
-    <t>20030446</t>
-  </si>
-  <si>
-    <t>DAIA PUTIH 1.5KG</t>
-  </si>
-  <si>
-    <t>20121050</t>
-  </si>
-  <si>
-    <t>DAIA HIJAB C&amp;F 1.5G</t>
-  </si>
-  <si>
-    <t>10014547</t>
-  </si>
-  <si>
-    <t>DAIA DTRG.BBK BGA1.5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20131792</t>
-  </si>
-  <si>
-    <t>BOOM DET.BBK LVND770</t>
+    <t>20139609</t>
+  </si>
+  <si>
+    <t>RNSO JPN PEAC 1.44KG</t>
+  </si>
+  <si>
+    <t>20140002</t>
+  </si>
+  <si>
+    <t>RINSO PWD PURE 1440G</t>
+  </si>
+  <si>
+    <t>20064413</t>
+  </si>
+  <si>
+    <t>ATCK JAZ1 S/CNTA 1.5</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20064414</t>
+  </si>
+  <si>
+    <t>ATTACK JAZ1 P/SGR1.5</t>
+  </si>
+  <si>
+    <t>20130527</t>
+  </si>
+  <si>
+    <t>ATTACK DET+SF RB 1.4</t>
+  </si>
+  <si>
+    <t>20138108</t>
+  </si>
+  <si>
+    <t>JAZ 1 PRPL BLS 1.4KG</t>
+  </si>
+  <si>
+    <t>20085113</t>
+  </si>
+  <si>
+    <t>RNSO+ML PWD PRFM 700</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20071827</t>
+  </si>
+  <si>
+    <t>RNSO+ML PWD ROSE 700</t>
+  </si>
+  <si>
+    <t>20123256</t>
+  </si>
+  <si>
+    <t>RINSO+MLT KRN STW700</t>
+  </si>
+  <si>
+    <t>20053058</t>
+  </si>
+  <si>
+    <t>ATTACK JAZ1 P/SGR800</t>
+  </si>
+  <si>
+    <t>20053059</t>
+  </si>
+  <si>
+    <t>ATTACK JAZ1 S/CNT800</t>
+  </si>
+  <si>
+    <t>20128719</t>
+  </si>
+  <si>
+    <t>SOKLIN LVD&amp;LILY 425G</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20042466</t>
+  </si>
+  <si>
+    <t>DAIA DET+SOFT 470G</t>
+  </si>
+  <si>
+    <t>20113183</t>
+  </si>
+  <si>
+    <t>RNSO+ML PWD ROSE 380</t>
+  </si>
+  <si>
+    <t>20121372</t>
+  </si>
+  <si>
+    <t>RNSO+ML PWD PRFM 380</t>
+  </si>
+  <si>
+    <t>20131516</t>
+  </si>
+  <si>
+    <t>LARIST DET.FRS BT450</t>
+  </si>
+  <si>
+    <t>20139595</t>
+  </si>
+  <si>
+    <t>MOLTO TRKA BDD 3X300</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20133398</t>
+  </si>
+  <si>
+    <t>TRKA PURE 300ML</t>
+  </si>
+  <si>
+    <t>10011440</t>
+  </si>
+  <si>
+    <t>RAPIKA LVDR SPLAS300</t>
+  </si>
+  <si>
+    <t>20084780</t>
+  </si>
+  <si>
+    <t>RAPIKA GOLD 250ML</t>
+  </si>
+  <si>
+    <t>20093193</t>
+  </si>
+  <si>
+    <t>RAPIKA PINK SKR 300</t>
+  </si>
+  <si>
+    <t>20138071</t>
+  </si>
+  <si>
+    <t>KISPRAY KASTURI 280</t>
+  </si>
+  <si>
+    <t>20074721</t>
+  </si>
+  <si>
+    <t>KISPRAY GLM.GOLD 280</t>
+  </si>
+  <si>
+    <t>20116685</t>
+  </si>
+  <si>
+    <t>KISPRAY ELG.SAPH 200</t>
+  </si>
+  <si>
+    <t>20032250</t>
+  </si>
+  <si>
+    <t>KISPRAY VIOLET PC280</t>
+  </si>
+  <si>
+    <t>20000980</t>
+  </si>
+  <si>
+    <t>KISPRAY VIOLET 318ML</t>
+  </si>
+  <si>
+    <t>20138470</t>
+  </si>
+  <si>
+    <t>SO KLN PWNG RED 1.7L</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10005803</t>
+  </si>
+  <si>
+    <t>SOKLIN PWNGI RED 780</t>
+  </si>
+  <si>
+    <t>10007389</t>
+  </si>
+  <si>
+    <t>SOKLIN PWNGI PINK780</t>
+  </si>
+  <si>
+    <t>10008104</t>
+  </si>
+  <si>
+    <t>SO KLIN PWG BLUE 780</t>
+  </si>
+  <si>
+    <t>20108418</t>
+  </si>
+  <si>
+    <t>SOKLIN PWG HJB GR780</t>
+  </si>
+  <si>
+    <t>10005802</t>
+  </si>
+  <si>
+    <t>SOKLIN PEWANGI VL780</t>
+  </si>
+  <si>
+    <t>20134526</t>
+  </si>
+  <si>
+    <t>SOKLIN PWG COT.FN780</t>
+  </si>
+  <si>
+    <t>20125391</t>
+  </si>
+  <si>
+    <t>SOKLIN PWG AC/SPT780</t>
+  </si>
+  <si>
+    <t>20129370</t>
+  </si>
+  <si>
+    <t>MOLTO MORNING FRS550</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20129160</t>
+  </si>
+  <si>
+    <t>MOLTO LUXURY PRF 650</t>
+  </si>
+  <si>
+    <t>20128919</t>
+  </si>
+  <si>
+    <t>MOLTO SFTNR PURE 550</t>
+  </si>
+  <si>
+    <t>20087464</t>
+  </si>
+  <si>
+    <t>IDM PWNG PINK.PAS720</t>
+  </si>
+  <si>
+    <t>20137582</t>
+  </si>
+  <si>
+    <t>IDM PWNG ROM.AURA720</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20137581</t>
+  </si>
+  <si>
+    <t>IDM PWNG EXO.BLUE720</t>
+  </si>
+  <si>
+    <t>20020245</t>
+  </si>
+  <si>
+    <t>MOLTO PWNGI BLUE 765</t>
+  </si>
+  <si>
+    <t>20020226</t>
+  </si>
+  <si>
+    <t>MOLTO PWNGI PINK 765</t>
+  </si>
+  <si>
+    <t>20106821</t>
+  </si>
+  <si>
+    <t>MOLTO PURPLE 765ML</t>
+  </si>
+  <si>
+    <t>20135847</t>
+  </si>
+  <si>
+    <t>ROYALE SOFT SUMMR600</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20135846</t>
+  </si>
+  <si>
+    <t>ROYALE SOFT SPRNG600</t>
+  </si>
+  <si>
+    <t>20014403</t>
+  </si>
+  <si>
+    <t>BAYCLIN REGLR 1000ML</t>
+  </si>
+  <si>
+    <t>RT,(E-3.5B)</t>
+  </si>
+  <si>
+    <t>20082581</t>
+  </si>
+  <si>
+    <t>VANISH CAIR WHT 425</t>
+  </si>
+  <si>
+    <t>20052662</t>
+  </si>
+  <si>
+    <t>VANISH CAIR PCH 425</t>
+  </si>
+  <si>
+    <t>20089665</t>
+  </si>
+  <si>
+    <t>IDM PHLANG NODA 450</t>
+  </si>
+  <si>
+    <t>20079788</t>
+  </si>
+  <si>
+    <t>PROCLIN PCH 400ML</t>
+  </si>
+  <si>
+    <t>10025646</t>
+  </si>
+  <si>
+    <t>YURI TAF LMN&amp;LIME500</t>
+  </si>
+  <si>
+    <t>10014263</t>
+  </si>
+  <si>
+    <t>WIPOL KARBOL CMR 730</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20001645</t>
+  </si>
+  <si>
+    <t>WIPOL KARBOL LMN 730</t>
+  </si>
+  <si>
+    <t>20090066</t>
+  </si>
+  <si>
+    <t>WIPOL SRH + JRK 730</t>
+  </si>
+  <si>
+    <t>20122478</t>
+  </si>
+  <si>
+    <t>WIPOL CITRUS FRS 390</t>
+  </si>
+  <si>
+    <t>20023111</t>
+  </si>
+  <si>
+    <t>SOS KARBOL CLS PN725</t>
+  </si>
+  <si>
+    <t>10013107</t>
+  </si>
+  <si>
+    <t>SUPERSOL PINE 750ML</t>
+  </si>
+  <si>
+    <t>20104030</t>
+  </si>
+  <si>
+    <t>SUPER SOL SEREH 750</t>
+  </si>
+  <si>
+    <t>20132664</t>
+  </si>
+  <si>
+    <t>VIXAL KUAT SEGAR 600</t>
+  </si>
+  <si>
+    <t>10004612</t>
+  </si>
+  <si>
+    <t>SOS P.LNT ORANGE 700</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>10004610</t>
+  </si>
+  <si>
+    <t>SOS P/LT APLL REF700</t>
+  </si>
+  <si>
+    <t>10010480</t>
+  </si>
+  <si>
+    <t>SPR PELL FRS.APEL760</t>
+  </si>
+  <si>
+    <t>20121373</t>
+  </si>
+  <si>
+    <t>SPR PELL AB CTRS 500</t>
+  </si>
+  <si>
+    <t>20137408</t>
+  </si>
+  <si>
+    <t>SPR PELL SAKURA 740</t>
+  </si>
+  <si>
+    <t>20001407</t>
+  </si>
+  <si>
+    <t>IDM P'LANTAI LAV 800</t>
+  </si>
+  <si>
+    <t>20001402</t>
+  </si>
+  <si>
+    <t>IDM P'LANTAI APL 800</t>
+  </si>
+  <si>
+    <t>20028779</t>
+  </si>
+  <si>
+    <t>IDM KRBOL WNG650(BR)</t>
+  </si>
+  <si>
+    <t>20089486</t>
+  </si>
+  <si>
+    <t>IDM KRBL SRH CTR 650</t>
+  </si>
+  <si>
+    <t>20112492</t>
+  </si>
+  <si>
+    <t>SUNLIGHT LIME 430G</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20034449</t>
+  </si>
+  <si>
+    <t>MAMA/L JERUK NPS 430</t>
+  </si>
+  <si>
+    <t>10012548</t>
+  </si>
+  <si>
+    <t>SOKLIN RLX/LAV RF770</t>
+  </si>
+  <si>
+    <t>10003646</t>
+  </si>
+  <si>
+    <t>SO KLIN P/L APPLE770</t>
+  </si>
+  <si>
+    <t>10003645</t>
+  </si>
+  <si>
+    <t>SO KLIN P/L LMN 780</t>
+  </si>
+  <si>
+    <t>20101095</t>
+  </si>
+  <si>
+    <t>SO KLN LNT SEREH 770</t>
+  </si>
+  <si>
+    <t>20131223</t>
+  </si>
+  <si>
+    <t>SO KLN LNT CT.GRD700</t>
+  </si>
+  <si>
+    <t>20131788</t>
+  </si>
+  <si>
+    <t>MAMA LMN JR.NPS 950</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20092331</t>
+  </si>
+  <si>
+    <t>EKONOMI LIQ JR.NP650</t>
+  </si>
+  <si>
+    <t>20123812</t>
+  </si>
+  <si>
+    <t>EKONOMI LQ.SEREH 650</t>
+  </si>
+  <si>
+    <t>20107240</t>
+  </si>
+  <si>
+    <t>EKONOMI LIQ.SW&amp;JR650</t>
+  </si>
+  <si>
+    <t>20136124</t>
+  </si>
+  <si>
+    <t>EKNOMI LIQ N&amp;JN 675G</t>
+  </si>
+  <si>
+    <t>20128374</t>
+  </si>
+  <si>
+    <t>LFEBUOY REF LIME 650</t>
+  </si>
+  <si>
+    <t>20134576</t>
+  </si>
+  <si>
+    <t>LFEBUOY REF LEMON650</t>
+  </si>
+  <si>
+    <t>20034450</t>
+  </si>
+  <si>
+    <t>MAMA/L JERUK NPS 690</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10004067</t>
+  </si>
+  <si>
+    <t>MAMA/L PCH LEMON 690</t>
+  </si>
+  <si>
+    <t>20099424</t>
+  </si>
+  <si>
+    <t>MAMA LIME CHARCO 690</t>
+  </si>
+  <si>
+    <t>20052031</t>
+  </si>
+  <si>
+    <t>MAMA LIME GRN TEA690</t>
+  </si>
+  <si>
+    <t>10004068</t>
+  </si>
+  <si>
+    <t>MAMA LIME POUCH 690</t>
+  </si>
+  <si>
+    <t>20134303</t>
+  </si>
+  <si>
+    <t>MAMA/L REF YUZU 690</t>
+  </si>
+  <si>
+    <t>20137792</t>
+  </si>
+  <si>
+    <t>MAMA LIME GREEN 690</t>
+  </si>
+  <si>
+    <t>20129722</t>
+  </si>
+  <si>
+    <t>BUKRIM LIQ.JRK NP550</t>
+  </si>
+  <si>
+    <t>20135144</t>
+  </si>
+  <si>
+    <t>SNLGHT BIO NATURE600</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20090067</t>
+  </si>
+  <si>
+    <t>SNLGHT MINT A.BAU600</t>
+  </si>
+  <si>
+    <t>20086172</t>
+  </si>
+  <si>
+    <t>SNLIGHT MND.ORGE 600</t>
+  </si>
+  <si>
+    <t>20073425</t>
+  </si>
+  <si>
+    <t>IDM P.PRNG JRK.N 650</t>
+  </si>
+  <si>
+    <t>20132940</t>
+  </si>
+  <si>
+    <t>IDM P.PRNG LEMON 650</t>
+  </si>
+  <si>
+    <t>20138518</t>
+  </si>
+  <si>
+    <t>KILAU NIPIS 630ML</t>
+  </si>
+  <si>
+    <t>20128125</t>
+  </si>
+  <si>
+    <t>IDM PURPOSE CLN 375</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20027963</t>
+  </si>
+  <si>
+    <t>IDM PMBERSH KACA 400</t>
+  </si>
+  <si>
+    <t>10003706</t>
+  </si>
+  <si>
+    <t>MR.MUSCLE ORGNL 400</t>
+  </si>
+  <si>
+    <t>20139728</t>
+  </si>
+  <si>
+    <t>SNLGHT BIO BLBR 870G</t>
+  </si>
+  <si>
+    <t>20112491</t>
+  </si>
+  <si>
+    <t>SNLIGHT LIME PCH 910</t>
+  </si>
+  <si>
+    <t>10005482</t>
+  </si>
+  <si>
+    <t>SNLIGHT LIME PCH 660</t>
+  </si>
+  <si>
+    <t>10013205</t>
+  </si>
+  <si>
+    <t>SUNLIGHT J/NIPIS.750</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20139947</t>
+  </si>
+  <si>
+    <t>SNLGHT BIO BLBR 675G</t>
+  </si>
+  <si>
+    <t>20139948</t>
+  </si>
+  <si>
+    <t>SNLGHT BERY&amp;LIME 675</t>
+  </si>
+  <si>
+    <t>20135845</t>
+  </si>
+  <si>
+    <t>EKNOMI LIQ JR&amp;LMN650</t>
+  </si>
+  <si>
+    <t>20093919</t>
+  </si>
+  <si>
+    <t>IDM PURPOSE CLN 400</t>
+  </si>
+  <si>
+    <t>10003498</t>
+  </si>
+  <si>
+    <t>CLEAR PUMP ORIGNL500</t>
+  </si>
+  <si>
+    <t>10034652</t>
+  </si>
+  <si>
+    <t>GLADE OCEAN ESCP 350</t>
+  </si>
+  <si>
+    <t>20105576</t>
+  </si>
+  <si>
+    <t>STELLA A/F SAKURA350</t>
+  </si>
+  <si>
+    <t>10029632</t>
+  </si>
+  <si>
+    <t>STELLA ALAT MATIC</t>
+  </si>
+  <si>
+    <t>10004032</t>
+  </si>
+  <si>
+    <t>VIXAL KUAT HARUM 750</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>10004034</t>
+  </si>
+  <si>
+    <t>VIXAL KMR MD KUAT750</t>
+  </si>
+  <si>
+    <t>10003359</t>
+  </si>
+  <si>
+    <t>WIPOL P.LNT BTL 730</t>
+  </si>
+  <si>
+    <t>10000955</t>
+  </si>
+  <si>
+    <t>PORSTEX N.PARFUM 1L</t>
+  </si>
+  <si>
+    <t>10018962</t>
+  </si>
+  <si>
+    <t>YURI PORSTEX OB.B700</t>
+  </si>
+  <si>
+    <t>10005246</t>
+  </si>
+  <si>
+    <t>WING PRCLN CLN BR750</t>
+  </si>
+  <si>
+    <t>20040315</t>
+  </si>
+  <si>
+    <t>IDM PORSELEN BTL 800</t>
+  </si>
+  <si>
+    <t>20015040</t>
+  </si>
+  <si>
+    <t>HARPIC TRIPLE ACT450</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20095746</t>
+  </si>
+  <si>
+    <t>HRPC PNG.KRK CTR 405</t>
+  </si>
+  <si>
+    <t>20042956</t>
+  </si>
+  <si>
+    <t>HARPIC PWR PLS CT450</t>
+  </si>
+  <si>
+    <t>10010232</t>
+  </si>
+  <si>
+    <t>KIWI LIQ.SHOE BLCK75</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10007934</t>
+  </si>
+  <si>
+    <t>KIWI PASTE BLACK 45M</t>
+  </si>
+  <si>
+    <t>20012183</t>
+  </si>
+  <si>
+    <t>BAYGON BKR D.DRH 5'S</t>
+  </si>
+  <si>
+    <t>20014401</t>
+  </si>
+  <si>
+    <t>BYGON BKR JMB LVD 5S</t>
+  </si>
+  <si>
+    <t>20128711</t>
+  </si>
+  <si>
+    <t>AUTAN LOT.JRK&amp;LMN 50</t>
+  </si>
+  <si>
+    <t>20106983</t>
+  </si>
+  <si>
+    <t>AUTAN LOT.SAKURA 50</t>
+  </si>
+  <si>
+    <t>20054250</t>
+  </si>
+  <si>
+    <t>AUTAN REFRESH/S 100</t>
+  </si>
+  <si>
+    <t>20128713</t>
+  </si>
+  <si>
+    <t>SOFEL LOT.KRN/SMR 60</t>
+  </si>
+  <si>
+    <t>20078241</t>
+  </si>
+  <si>
+    <t>SOFFELL LOT.APEL 60G</t>
+  </si>
+  <si>
+    <t>10040202</t>
+  </si>
+  <si>
+    <t>SOFFELL A.NYMK K/J60</t>
+  </si>
+  <si>
+    <t>10035178</t>
+  </si>
+  <si>
+    <t>DORA RACUN TIKUS 100</t>
+  </si>
+  <si>
+    <t>10037280</t>
+  </si>
+  <si>
+    <t>BAGUS KAPUR AJAIB</t>
+  </si>
+  <si>
+    <t>20109069</t>
+  </si>
+  <si>
+    <t>BAGUS LEM TIKUS PCS</t>
+  </si>
+  <si>
+    <t>10003479</t>
+  </si>
+  <si>
+    <t>GAJAH LEM TIKUS KT70</t>
+  </si>
+  <si>
+    <t>20139525</t>
+  </si>
+  <si>
+    <t>VAPE DORA LEM TIKUS</t>
+  </si>
+  <si>
+    <t>10037275</t>
+  </si>
+  <si>
+    <t>SWALLOW KMPR BTR 300</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>20027997</t>
+  </si>
+  <si>
+    <t>IDM KAMPER NAPTLN150</t>
+  </si>
+  <si>
+    <t>20131886</t>
+  </si>
+  <si>
+    <t>IDM KMPR DEO SKRA 5S</t>
+  </si>
+  <si>
+    <t>20131885</t>
+  </si>
+  <si>
+    <t>IDM KMPR DEO CFFE 5S</t>
+  </si>
+  <si>
+    <t>20079794</t>
+  </si>
+  <si>
+    <t>IDM KAMPER TOILET 5S</t>
+  </si>
+  <si>
+    <t>20139963</t>
+  </si>
+  <si>
+    <t>LARISST CTRONELLA 5S</t>
+  </si>
+  <si>
+    <t>10000279</t>
+  </si>
+  <si>
+    <t>SWALLOW TLT.BALL 5'S</t>
+  </si>
+  <si>
+    <t>10000482</t>
+  </si>
+  <si>
+    <t>SWALLOW K/DEO BAL105</t>
+  </si>
+  <si>
+    <t>20017478</t>
+  </si>
+  <si>
+    <t>SWALLOW ORG S-160</t>
+  </si>
+  <si>
+    <t>20122471</t>
+  </si>
+  <si>
+    <t>STELLA LAV.GRD 42+13</t>
+  </si>
+  <si>
+    <t>20136409</t>
+  </si>
+  <si>
+    <t>STELLA BALI JAS42+13</t>
+  </si>
+  <si>
+    <t>20109616</t>
+  </si>
+  <si>
+    <t>STELLA CAFF.LATTE 42</t>
+  </si>
+  <si>
+    <t>20075791</t>
+  </si>
+  <si>
+    <t>STELLA POCKET ORG 10</t>
+  </si>
+  <si>
+    <t>20075798</t>
+  </si>
+  <si>
+    <t>STLLA POCKET PRPL 10</t>
+  </si>
+  <si>
+    <t>20091307</t>
+  </si>
+  <si>
+    <t>STELLA POCKET BLU 10</t>
+  </si>
+  <si>
+    <t>20138481</t>
+  </si>
+  <si>
+    <t>STELLA EXO.FRUIT 10G</t>
+  </si>
+  <si>
+    <t>20138482</t>
+  </si>
+  <si>
+    <t>STELLA LUX.FLOWR 10G</t>
+  </si>
+  <si>
+    <t>20105573</t>
+  </si>
+  <si>
+    <t>STELLA AF REF JPS160</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20037058</t>
+  </si>
+  <si>
+    <t>STELLA AF REF FLW160</t>
+  </si>
+  <si>
+    <t>20036827</t>
+  </si>
+  <si>
+    <t>STELLA AF REF GRN160</t>
+  </si>
+  <si>
+    <t>20044100</t>
+  </si>
+  <si>
+    <t>STELLA AF REF APL160</t>
+  </si>
+  <si>
+    <t>20135485</t>
+  </si>
+  <si>
+    <t>STELLA AF REF BAL160</t>
+  </si>
+  <si>
+    <t>20046210</t>
+  </si>
+  <si>
+    <t>GLADE OCN ESCPE 146G</t>
+  </si>
+  <si>
+    <t>10023003</t>
+  </si>
+  <si>
+    <t>GLADE PNY&amp;BRY BLS 70</t>
+  </si>
+  <si>
+    <t>10023002</t>
+  </si>
+  <si>
+    <t>GLADE FRESH ONE EF70</t>
+  </si>
+  <si>
+    <t>20096642</t>
+  </si>
+  <si>
+    <t>IDM FRSHNS LEMON 50</t>
+  </si>
+  <si>
+    <t>20096641</t>
+  </si>
+  <si>
+    <t>IDM FRSHNS ORANGE 50</t>
+  </si>
+  <si>
+    <t>10005428</t>
+  </si>
+  <si>
+    <t>STELLA IN ONE ORG 42</t>
+  </si>
+  <si>
+    <t>10005427</t>
+  </si>
+  <si>
+    <t>STELLA IN ONE LMN 42</t>
+  </si>
+  <si>
+    <t>20134373</t>
+  </si>
+  <si>
+    <t>STELLA ALAT+REFILL25</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>20134374</t>
+  </si>
+  <si>
+    <t>STELLA ELCTRIC LAV25</t>
+  </si>
+  <si>
+    <t>20139144</t>
+  </si>
+  <si>
+    <t>HIT XPRES PINK BL.35</t>
+  </si>
+  <si>
+    <t>20131161</t>
+  </si>
+  <si>
+    <t>HIT REF XPRES APLE35</t>
+  </si>
+  <si>
+    <t>20095744</t>
+  </si>
+  <si>
+    <t>HIT REF EXPRT FRS 35</t>
+  </si>
+  <si>
+    <t>20039183</t>
+  </si>
+  <si>
+    <t>HIT ALAT+REF EXP APL</t>
+  </si>
+  <si>
+    <t>10034732</t>
+  </si>
+  <si>
+    <t>HIT MAT ELECTRK 48'S</t>
+  </si>
+  <si>
+    <t>10027329</t>
+  </si>
+  <si>
+    <t>HIT ALT NYAMUK ELC 5</t>
+  </si>
+  <si>
+    <t>20084568</t>
+  </si>
+  <si>
+    <t>VAPE LIQ.SKR BLOSM45</t>
+  </si>
+  <si>
+    <t>20008748</t>
+  </si>
+  <si>
+    <t>VAPE LIQUID REF 45ML</t>
+  </si>
+  <si>
+    <t>20023870</t>
+  </si>
+  <si>
+    <t>VAPE LIQUID ELEKTRIK</t>
+  </si>
+  <si>
+    <t>20030445</t>
+  </si>
+  <si>
+    <t>VAPE SPRAY 1XSMP ORG</t>
+  </si>
+  <si>
+    <t>20073974</t>
+  </si>
+  <si>
+    <t>VAPE SPRAY 1XSMP SKR</t>
+  </si>
+  <si>
+    <t>20135247</t>
+  </si>
+  <si>
+    <t>BAYGON FLRL.FNTSY500</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>20135248</t>
+  </si>
+  <si>
+    <t>BAYGON CHRRY BRRY500</t>
+  </si>
+  <si>
+    <t>10015526</t>
+  </si>
+  <si>
+    <t>BAYGON SPRY LVND 750</t>
+  </si>
+  <si>
+    <t>20124346</t>
+  </si>
+  <si>
+    <t>BAYGON JPNSE&amp;PCH 600</t>
+  </si>
+  <si>
+    <t>RT,(E-6B)</t>
+  </si>
+  <si>
+    <t>20098605</t>
+  </si>
+  <si>
+    <t>BYGON SPRY CHR.BL600</t>
+  </si>
+  <si>
+    <t>10003272</t>
+  </si>
+  <si>
+    <t>BAYGON SPRY CITRS675</t>
+  </si>
+  <si>
+    <t>20071775</t>
+  </si>
+  <si>
+    <t>BAYGON FLO.GRDN 675</t>
+  </si>
+  <si>
+    <t>20139154</t>
+  </si>
+  <si>
+    <t>HIT COTTON PWD 600ML</t>
+  </si>
+  <si>
+    <t>20054151</t>
+  </si>
+  <si>
+    <t>HIT INS.SPRY LILY600</t>
+  </si>
+  <si>
+    <t>10005198</t>
+  </si>
+  <si>
+    <t>HIT INS.SPRAY ORG600</t>
+  </si>
+  <si>
+    <t>20109613</t>
+  </si>
+  <si>
+    <t>HIT SPRY.P/BLOSM 600</t>
+  </si>
+  <si>
+    <t>20080868</t>
+  </si>
+  <si>
+    <t>HIT FRESH CITRUS 600</t>
+  </si>
+  <si>
+    <t>20131365</t>
+  </si>
+  <si>
+    <t>HIT SPRY JPN.SKR 600</t>
+  </si>
+  <si>
+    <t>20076987</t>
+  </si>
+  <si>
+    <t>BAYGON FLOW.GRDN 200</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>20022902</t>
+  </si>
+  <si>
+    <t>HIT SPRAY ORG 180</t>
+  </si>
+  <si>
+    <t>20064216</t>
+  </si>
+  <si>
+    <t>HIT INS.SPRY LILY180</t>
+  </si>
+  <si>
+    <t>20124418</t>
+  </si>
+  <si>
+    <t>VAPE SWEET PWDR 240</t>
+  </si>
+  <si>
+    <t>20139446</t>
+  </si>
+  <si>
+    <t>BAYGON CTRS FRSH 400</t>
+  </si>
+  <si>
+    <t>20128132</t>
+  </si>
+  <si>
+    <t>BAYGON FLO.GRDN 400</t>
+  </si>
+  <si>
+    <t>20088715</t>
+  </si>
+  <si>
+    <t>HIT SPRAY LILY 400ML</t>
+  </si>
+  <si>
+    <t>20022498</t>
+  </si>
+  <si>
+    <t>HIT SPRAY ORG 400ML</t>
+  </si>
+  <si>
+    <t>20134237</t>
+  </si>
+  <si>
+    <t>HIT SPRY.P/BLOSM 400</t>
+  </si>
+  <si>
+    <t>20136130</t>
+  </si>
+  <si>
+    <t>VAPE FLO.BUBBLE 600</t>
+  </si>
+  <si>
+    <t>20124850</t>
+  </si>
+  <si>
+    <t>VAPE SPRY SWET PD600</t>
+  </si>
+  <si>
+    <t>20136134</t>
+  </si>
+  <si>
+    <t>VAPE CANDY FLO 600</t>
+  </si>
+  <si>
+    <t>10006651</t>
+  </si>
+  <si>
+    <t>VAPE FMK ORANGE 600</t>
   </si>
   <si>
     <t>20131790</t>
@@ -460,1528 +1990,7 @@
     <t>BOOM DET.BBK ROSE770</t>
   </si>
   <si>
-    <t>20123022</t>
-  </si>
-  <si>
-    <t>SAYANG PWDR ROSE 770</t>
-  </si>
-  <si>
-    <t>20061748</t>
-  </si>
-  <si>
-    <t>DAIA DET+SFT VLT 800</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20036047</t>
-  </si>
-  <si>
-    <t>DAIA DET+SOFT  800G</t>
-  </si>
-  <si>
-    <t>20012007</t>
-  </si>
-  <si>
-    <t>DAIA DET.BBK PTH 800</t>
-  </si>
-  <si>
-    <t>10005245</t>
-  </si>
-  <si>
-    <t>DAIA BBK FLORAL 800G</t>
-  </si>
-  <si>
-    <t>20074992</t>
-  </si>
-  <si>
-    <t>BUKRIM OXY/K VIOL700</t>
-  </si>
-  <si>
-    <t>20125692</t>
-  </si>
-  <si>
-    <t>IDM DET MATIC 700ML</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20067586</t>
-  </si>
-  <si>
-    <t>SOKLIN LIQ.BM TOP700</t>
-  </si>
-  <si>
-    <t>20131366</t>
-  </si>
-  <si>
-    <t>RINSO LIQ.MTC TOP700</t>
-  </si>
-  <si>
-    <t>20054610</t>
-  </si>
-  <si>
-    <t>RINSO LIQ FRONT 1.45</t>
-  </si>
-  <si>
-    <t>20086327</t>
-  </si>
-  <si>
-    <t>RINSO MTC FRN/L 900G</t>
-  </si>
-  <si>
-    <t>10030924</t>
-  </si>
-  <si>
-    <t>SOKLIN MTC F/LD 900G</t>
-  </si>
-  <si>
-    <t>20119238</t>
-  </si>
-  <si>
-    <t>TOTAL DET.PERFUME750</t>
-  </si>
-  <si>
-    <t>20081448</t>
-  </si>
-  <si>
-    <t>ROYALE SOFT H.SM 650</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20081449</t>
-  </si>
-  <si>
-    <t>ROYALE SOFT P.DW 650</t>
-  </si>
-  <si>
-    <t>20113101</t>
-  </si>
-  <si>
-    <t>ROYALE SWT FLORL 680</t>
-  </si>
-  <si>
-    <t>20104951</t>
-  </si>
-  <si>
-    <t>ROYALE HJB BLCK.V650</t>
-  </si>
-  <si>
-    <t>20091457</t>
-  </si>
-  <si>
-    <t>ROYALE SOFT BS 650</t>
-  </si>
-  <si>
-    <t>20128706</t>
-  </si>
-  <si>
-    <t>ROYALE LNVDR VNL 680</t>
-  </si>
-  <si>
-    <t>20113093</t>
-  </si>
-  <si>
-    <t>ROYALE SUNNY DAY 680</t>
-  </si>
-  <si>
-    <t>20098312</t>
-  </si>
-  <si>
-    <t>ROYALE PINK STN 650</t>
-  </si>
-  <si>
-    <t>20126740</t>
-  </si>
-  <si>
-    <t>MOLTO FRSH.CSBLCA650</t>
-  </si>
-  <si>
-    <t>20094735</t>
-  </si>
-  <si>
-    <t>DOWNY SUNRISE 950</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>PT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20094733</t>
-  </si>
-  <si>
-    <t>DOWNY MYSTIQUE 850</t>
-  </si>
-  <si>
-    <t>20140221</t>
-  </si>
-  <si>
-    <t>DOWNY PASSION 950ML</t>
-  </si>
-  <si>
-    <t>20074226</t>
-  </si>
-  <si>
-    <t>DOWNY SUN.FRSH 600</t>
-  </si>
-  <si>
-    <t>20080360</t>
-  </si>
-  <si>
-    <t>DOWNY MYSTIQUE 600ML</t>
-  </si>
-  <si>
-    <t>20080361</t>
-  </si>
-  <si>
-    <t>DOWNY PASSION 600ML</t>
-  </si>
-  <si>
-    <t>20087479</t>
-  </si>
-  <si>
-    <t>DOWNY FLO.PINK 600ML</t>
-  </si>
-  <si>
-    <t>20139145</t>
-  </si>
-  <si>
-    <t>DOWNY MLKY TOUCH 500</t>
-  </si>
-  <si>
-    <t>20139609</t>
-  </si>
-  <si>
-    <t>RNSO JPN PEAC 1.44KG</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20140002</t>
-  </si>
-  <si>
-    <t>RINSO PWD PURE 1440G</t>
-  </si>
-  <si>
-    <t>20064413</t>
-  </si>
-  <si>
-    <t>ATCK JAZ1 S/CNTA 1.5</t>
-  </si>
-  <si>
-    <t>20064414</t>
-  </si>
-  <si>
-    <t>ATTACK JAZ1 P/SGR1.5</t>
-  </si>
-  <si>
-    <t>20053796</t>
-  </si>
-  <si>
-    <t>SOKLN SOFTG PRPL 720</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20073499</t>
-  </si>
-  <si>
-    <t>SO KLN MGNL&amp;BRY 720G</t>
-  </si>
-  <si>
-    <t>20012188</t>
-  </si>
-  <si>
-    <t>SOKLN SOFTR ROSY 720</t>
-  </si>
-  <si>
-    <t>20130527</t>
-  </si>
-  <si>
-    <t>ATTACK DET+SF RB 1.4</t>
-  </si>
-  <si>
-    <t>20138108</t>
-  </si>
-  <si>
-    <t>JAZ 1 PRPL BLS 1.4KG</t>
-  </si>
-  <si>
-    <t>20085113</t>
-  </si>
-  <si>
-    <t>RNSO+ML PWD PRFM 700</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20071827</t>
-  </si>
-  <si>
-    <t>RNSO+ML PWD ROSE 700</t>
-  </si>
-  <si>
-    <t>20123256</t>
-  </si>
-  <si>
-    <t>RINSO+MLT KRN STW700</t>
-  </si>
-  <si>
-    <t>20053058</t>
-  </si>
-  <si>
-    <t>ATTACK JAZ1 P/SGR800</t>
-  </si>
-  <si>
-    <t>20053059</t>
-  </si>
-  <si>
-    <t>ATTACK JAZ1 S/CNT800</t>
-  </si>
-  <si>
-    <t>20128719</t>
-  </si>
-  <si>
-    <t>SOKLIN LVD&amp;LILY 425G</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20042466</t>
-  </si>
-  <si>
-    <t>DAIA DET+SOFT 470G</t>
-  </si>
-  <si>
-    <t>20113183</t>
-  </si>
-  <si>
-    <t>RNSO+ML PWD ROSE 380</t>
-  </si>
-  <si>
-    <t>20121372</t>
-  </si>
-  <si>
-    <t>RNSO+ML PWD PRFM 380</t>
-  </si>
-  <si>
-    <t>20131516</t>
-  </si>
-  <si>
-    <t>LARIST DET.FRS BT450</t>
-  </si>
-  <si>
-    <t>20139595</t>
-  </si>
-  <si>
-    <t>MOLTO TRKA BDD 3X300</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20133398</t>
-  </si>
-  <si>
-    <t>TRKA PURE 300ML</t>
-  </si>
-  <si>
-    <t>10011440</t>
-  </si>
-  <si>
-    <t>RAPIKA LVDR SPLAS300</t>
-  </si>
-  <si>
-    <t>20084780</t>
-  </si>
-  <si>
-    <t>RAPIKA GOLD 250ML</t>
-  </si>
-  <si>
-    <t>20093193</t>
-  </si>
-  <si>
-    <t>RAPIKA PINK SKR 300</t>
-  </si>
-  <si>
-    <t>20138071</t>
-  </si>
-  <si>
-    <t>KISPRAY KASTURI 280</t>
-  </si>
-  <si>
-    <t>20074721</t>
-  </si>
-  <si>
-    <t>KISPRAY GLM.GOLD 280</t>
-  </si>
-  <si>
-    <t>20116685</t>
-  </si>
-  <si>
-    <t>KISPRAY ELG.SAPH 200</t>
-  </si>
-  <si>
-    <t>20032250</t>
-  </si>
-  <si>
-    <t>KISPRAY VIOLET PC280</t>
-  </si>
-  <si>
-    <t>20000980</t>
-  </si>
-  <si>
-    <t>KISPRAY VIOLET 318ML</t>
-  </si>
-  <si>
-    <t>20138470</t>
-  </si>
-  <si>
-    <t>SO KLN PWNG RED 1.7L</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10005803</t>
-  </si>
-  <si>
-    <t>SOKLIN PWNGI RED 780</t>
-  </si>
-  <si>
-    <t>10007389</t>
-  </si>
-  <si>
-    <t>SOKLIN PWNGI PINK780</t>
-  </si>
-  <si>
-    <t>10008104</t>
-  </si>
-  <si>
-    <t>SO KLIN PWG BLUE 780</t>
-  </si>
-  <si>
-    <t>20108418</t>
-  </si>
-  <si>
-    <t>SOKLIN PWG HJB GR780</t>
-  </si>
-  <si>
-    <t>10005802</t>
-  </si>
-  <si>
-    <t>SOKLIN PEWANGI VL780</t>
-  </si>
-  <si>
-    <t>20134526</t>
-  </si>
-  <si>
-    <t>SOKLIN PWG COT.FN780</t>
-  </si>
-  <si>
-    <t>20125391</t>
-  </si>
-  <si>
-    <t>SOKLIN PWG AC/SPT780</t>
-  </si>
-  <si>
-    <t>20129370</t>
-  </si>
-  <si>
-    <t>MOLTO MORNING FRS550</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20129160</t>
-  </si>
-  <si>
-    <t>MOLTO LUXURY PRF 650</t>
-  </si>
-  <si>
-    <t>20128919</t>
-  </si>
-  <si>
-    <t>MOLTO SFTNR PURE 550</t>
-  </si>
-  <si>
-    <t>20087464</t>
-  </si>
-  <si>
-    <t>IDM PWNG PINK.PAS720</t>
-  </si>
-  <si>
-    <t>20137582</t>
-  </si>
-  <si>
-    <t>IDM PWNG ROM.AURA720</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20137581</t>
-  </si>
-  <si>
-    <t>IDM PWNG EXO.BLUE720</t>
-  </si>
-  <si>
-    <t>20020245</t>
-  </si>
-  <si>
-    <t>MOLTO PWNGI BLUE 765</t>
-  </si>
-  <si>
-    <t>20020226</t>
-  </si>
-  <si>
-    <t>MOLTO PWNGI PINK 765</t>
-  </si>
-  <si>
-    <t>20106821</t>
-  </si>
-  <si>
-    <t>MOLTO PURPLE 765ML</t>
-  </si>
-  <si>
-    <t>20135847</t>
-  </si>
-  <si>
-    <t>ROYALE SOFT SUMMR600</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20135846</t>
-  </si>
-  <si>
-    <t>ROYALE SOFT SPRNG600</t>
-  </si>
-  <si>
-    <t>20014403</t>
-  </si>
-  <si>
-    <t>BAYCLIN REGLR 1000ML</t>
-  </si>
-  <si>
-    <t>RT,(E-3.5B)</t>
-  </si>
-  <si>
-    <t>20082581</t>
-  </si>
-  <si>
-    <t>VANISH CAIR WHT 425</t>
-  </si>
-  <si>
-    <t>20052662</t>
-  </si>
-  <si>
-    <t>VANISH CAIR PCH 425</t>
-  </si>
-  <si>
-    <t>20089665</t>
-  </si>
-  <si>
-    <t>IDM PHLANG NODA 450</t>
-  </si>
-  <si>
-    <t>20079788</t>
-  </si>
-  <si>
-    <t>PROCLIN PCH 400ML</t>
-  </si>
-  <si>
-    <t>10025646</t>
-  </si>
-  <si>
-    <t>YURI TAF LMN&amp;LIME500</t>
-  </si>
-  <si>
-    <t>10014263</t>
-  </si>
-  <si>
-    <t>WIPOL KARBOL CMR 730</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20001645</t>
-  </si>
-  <si>
-    <t>WIPOL KARBOL LMN 730</t>
-  </si>
-  <si>
-    <t>20090066</t>
-  </si>
-  <si>
-    <t>WIPOL SRH + JRK 730</t>
-  </si>
-  <si>
-    <t>20122478</t>
-  </si>
-  <si>
-    <t>WIPOL CITRUS FRS 390</t>
-  </si>
-  <si>
-    <t>20023111</t>
-  </si>
-  <si>
-    <t>SOS KARBOL CLS PN725</t>
-  </si>
-  <si>
-    <t>10013107</t>
-  </si>
-  <si>
-    <t>SUPERSOL PINE 750ML</t>
-  </si>
-  <si>
-    <t>20104030</t>
-  </si>
-  <si>
-    <t>SUPER SOL SEREH 750</t>
-  </si>
-  <si>
-    <t>20132664</t>
-  </si>
-  <si>
-    <t>VIXAL KUAT SEGAR 600</t>
-  </si>
-  <si>
-    <t>10004612</t>
-  </si>
-  <si>
-    <t>SOS P.LNT ORANGE 700</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>10004610</t>
-  </si>
-  <si>
-    <t>SOS P/LT APLL REF700</t>
-  </si>
-  <si>
-    <t>10010480</t>
-  </si>
-  <si>
-    <t>SPR PELL FRS.APEL760</t>
-  </si>
-  <si>
-    <t>20121373</t>
-  </si>
-  <si>
-    <t>SPR PELL AB CTRS 500</t>
-  </si>
-  <si>
-    <t>20137408</t>
-  </si>
-  <si>
-    <t>SPR PELL SAKURA 740</t>
-  </si>
-  <si>
-    <t>20001407</t>
-  </si>
-  <si>
-    <t>IDM P'LANTAI LAV 800</t>
-  </si>
-  <si>
-    <t>20001402</t>
-  </si>
-  <si>
-    <t>IDM P'LANTAI APL 800</t>
-  </si>
-  <si>
-    <t>20028779</t>
-  </si>
-  <si>
-    <t>IDM KRBOL WNG650(BR)</t>
-  </si>
-  <si>
-    <t>20089486</t>
-  </si>
-  <si>
-    <t>IDM KRBL SRH CTR 650</t>
-  </si>
-  <si>
-    <t>20112492</t>
-  </si>
-  <si>
-    <t>SUNLIGHT LIME 430G</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20034449</t>
-  </si>
-  <si>
-    <t>MAMA/L JERUK NPS 430</t>
-  </si>
-  <si>
-    <t>10012548</t>
-  </si>
-  <si>
-    <t>SOKLIN RLX/LAV RF770</t>
-  </si>
-  <si>
-    <t>10003646</t>
-  </si>
-  <si>
-    <t>SO KLIN P/L APPLE770</t>
-  </si>
-  <si>
-    <t>10003645</t>
-  </si>
-  <si>
-    <t>SO KLIN P/L LMN 780</t>
-  </si>
-  <si>
-    <t>20101095</t>
-  </si>
-  <si>
-    <t>SO KLN LNT SEREH 770</t>
-  </si>
-  <si>
-    <t>20131223</t>
-  </si>
-  <si>
-    <t>SO KLN LNT CT.GRD700</t>
-  </si>
-  <si>
-    <t>20131788</t>
-  </si>
-  <si>
-    <t>MAMA LMN JR.NPS 950</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20092331</t>
-  </si>
-  <si>
-    <t>EKONOMI LIQ JR.NP650</t>
-  </si>
-  <si>
-    <t>20123812</t>
-  </si>
-  <si>
-    <t>EKONOMI LQ.SEREH 650</t>
-  </si>
-  <si>
-    <t>20107240</t>
-  </si>
-  <si>
-    <t>EKONOMI LIQ.SW&amp;JR650</t>
-  </si>
-  <si>
-    <t>20136124</t>
-  </si>
-  <si>
-    <t>EKNOMI LIQ N&amp;JN 675G</t>
-  </si>
-  <si>
-    <t>20128374</t>
-  </si>
-  <si>
-    <t>LFEBUOY REF LIME 650</t>
-  </si>
-  <si>
-    <t>20134576</t>
-  </si>
-  <si>
-    <t>LFEBUOY REF LEMON650</t>
-  </si>
-  <si>
-    <t>20034450</t>
-  </si>
-  <si>
-    <t>MAMA/L JERUK NPS 690</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10004067</t>
-  </si>
-  <si>
-    <t>MAMA/L PCH LEMON 690</t>
-  </si>
-  <si>
-    <t>20099424</t>
-  </si>
-  <si>
-    <t>MAMA LIME CHARCO 690</t>
-  </si>
-  <si>
-    <t>20052031</t>
-  </si>
-  <si>
-    <t>MAMA LIME GRN TEA690</t>
-  </si>
-  <si>
-    <t>10004068</t>
-  </si>
-  <si>
-    <t>MAMA LIME POUCH 690</t>
-  </si>
-  <si>
-    <t>20134303</t>
-  </si>
-  <si>
-    <t>MAMA/L REF YUZU 690</t>
-  </si>
-  <si>
-    <t>20137792</t>
-  </si>
-  <si>
-    <t>MAMA LIME GREEN 690</t>
-  </si>
-  <si>
-    <t>20129722</t>
-  </si>
-  <si>
-    <t>BUKRIM LIQ.JRK NP550</t>
-  </si>
-  <si>
-    <t>20135144</t>
-  </si>
-  <si>
-    <t>SNLGHT BIO NATURE600</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20090067</t>
-  </si>
-  <si>
-    <t>SNLGHT MINT A.BAU600</t>
-  </si>
-  <si>
-    <t>20086172</t>
-  </si>
-  <si>
-    <t>SNLIGHT MND.ORGE 600</t>
-  </si>
-  <si>
-    <t>20073425</t>
-  </si>
-  <si>
-    <t>IDM P.PRNG JRK.N 650</t>
-  </si>
-  <si>
-    <t>20132940</t>
-  </si>
-  <si>
-    <t>IDM P.PRNG LEMON 650</t>
-  </si>
-  <si>
-    <t>20138518</t>
-  </si>
-  <si>
-    <t>KILAU NIPIS 630ML</t>
-  </si>
-  <si>
-    <t>20128125</t>
-  </si>
-  <si>
-    <t>IDM PURPOSE CLN 375</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20027963</t>
-  </si>
-  <si>
-    <t>IDM PMBERSH KACA 400</t>
-  </si>
-  <si>
-    <t>10003706</t>
-  </si>
-  <si>
-    <t>MR.MUSCLE ORGNL 400</t>
-  </si>
-  <si>
-    <t>20139728</t>
-  </si>
-  <si>
-    <t>SNLGHT BIO BLBR 870G</t>
-  </si>
-  <si>
-    <t>20112491</t>
-  </si>
-  <si>
-    <t>SNLIGHT LIME PCH 910</t>
-  </si>
-  <si>
-    <t>10005482</t>
-  </si>
-  <si>
-    <t>SNLIGHT LIME PCH 660</t>
-  </si>
-  <si>
-    <t>10013205</t>
-  </si>
-  <si>
-    <t>SUNLIGHT J/NIPIS.750</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20139947</t>
-  </si>
-  <si>
-    <t>SNLGHT BIO BLBR 675G</t>
-  </si>
-  <si>
-    <t>20139948</t>
-  </si>
-  <si>
-    <t>SNLGHT BERY&amp;LIME 675</t>
-  </si>
-  <si>
-    <t>20135845</t>
-  </si>
-  <si>
-    <t>EKNOMI LIQ JR&amp;LMN650</t>
-  </si>
-  <si>
-    <t>20093919</t>
-  </si>
-  <si>
-    <t>IDM PURPOSE CLN 400</t>
-  </si>
-  <si>
-    <t>10003498</t>
-  </si>
-  <si>
-    <t>CLEAR PUMP ORIGNL500</t>
-  </si>
-  <si>
-    <t>10034652</t>
-  </si>
-  <si>
-    <t>GLADE OCEAN ESCP 350</t>
-  </si>
-  <si>
-    <t>20105576</t>
-  </si>
-  <si>
-    <t>STELLA A/F SAKURA350</t>
-  </si>
-  <si>
-    <t>10029632</t>
-  </si>
-  <si>
-    <t>STELLA ALAT MATIC</t>
-  </si>
-  <si>
-    <t>10004032</t>
-  </si>
-  <si>
-    <t>VIXAL KUAT HARUM 750</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>10004034</t>
-  </si>
-  <si>
-    <t>VIXAL KMR MD KUAT750</t>
-  </si>
-  <si>
-    <t>10003359</t>
-  </si>
-  <si>
-    <t>WIPOL P.LNT BTL 730</t>
-  </si>
-  <si>
-    <t>10000955</t>
-  </si>
-  <si>
-    <t>PORSTEX N.PARFUM 1L</t>
-  </si>
-  <si>
-    <t>10018962</t>
-  </si>
-  <si>
-    <t>YURI PORSTEX OB.B700</t>
-  </si>
-  <si>
-    <t>10005246</t>
-  </si>
-  <si>
-    <t>WING PRCLN CLN BR750</t>
-  </si>
-  <si>
-    <t>20040315</t>
-  </si>
-  <si>
-    <t>IDM PORSELEN BTL 800</t>
-  </si>
-  <si>
-    <t>20015040</t>
-  </si>
-  <si>
-    <t>HARPIC TRIPLE ACT450</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20095746</t>
-  </si>
-  <si>
-    <t>HRPC PNG.KRK CTR 405</t>
-  </si>
-  <si>
-    <t>20042956</t>
-  </si>
-  <si>
-    <t>HARPIC PWR PLS CT450</t>
-  </si>
-  <si>
-    <t>10010232</t>
-  </si>
-  <si>
-    <t>KIWI LIQ.SHOE BLCK75</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>10007934</t>
-  </si>
-  <si>
-    <t>KIWI PASTE BLACK 45M</t>
-  </si>
-  <si>
-    <t>20012183</t>
-  </si>
-  <si>
-    <t>BAYGON BKR D.DRH 5'S</t>
-  </si>
-  <si>
-    <t>20014401</t>
-  </si>
-  <si>
-    <t>BYGON BKR JMB LVD 5S</t>
-  </si>
-  <si>
-    <t>20128711</t>
-  </si>
-  <si>
-    <t>AUTAN LOT.JRK&amp;LMN 50</t>
-  </si>
-  <si>
-    <t>20106983</t>
-  </si>
-  <si>
-    <t>AUTAN LOT.SAKURA 50</t>
-  </si>
-  <si>
-    <t>20054250</t>
-  </si>
-  <si>
-    <t>AUTAN REFRESH/S 100</t>
-  </si>
-  <si>
-    <t>20128713</t>
-  </si>
-  <si>
-    <t>SOFEL LOT.KRN/SMR 60</t>
-  </si>
-  <si>
-    <t>20078241</t>
-  </si>
-  <si>
-    <t>SOFFELL LOT.APEL 60G</t>
-  </si>
-  <si>
-    <t>10040202</t>
-  </si>
-  <si>
-    <t>SOFFELL A.NYMK K/J60</t>
-  </si>
-  <si>
-    <t>10035178</t>
-  </si>
-  <si>
-    <t>DORA RACUN TIKUS 100</t>
-  </si>
-  <si>
-    <t>10037280</t>
-  </si>
-  <si>
-    <t>BAGUS KAPUR AJAIB</t>
-  </si>
-  <si>
-    <t>20109069</t>
-  </si>
-  <si>
-    <t>BAGUS LEM TIKUS PCS</t>
-  </si>
-  <si>
-    <t>10003479</t>
-  </si>
-  <si>
-    <t>GAJAH LEM TIKUS KT70</t>
-  </si>
-  <si>
-    <t>20139525</t>
-  </si>
-  <si>
-    <t>VAPE DORA LEM TIKUS</t>
-  </si>
-  <si>
-    <t>10037275</t>
-  </si>
-  <si>
-    <t>SWALLOW KMPR BTR 300</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>20027997</t>
-  </si>
-  <si>
-    <t>IDM KAMPER NAPTLN150</t>
-  </si>
-  <si>
-    <t>20131886</t>
-  </si>
-  <si>
-    <t>IDM KMPR DEO SKRA 5S</t>
-  </si>
-  <si>
-    <t>20131885</t>
-  </si>
-  <si>
-    <t>IDM KMPR DEO CFFE 5S</t>
-  </si>
-  <si>
-    <t>20079794</t>
-  </si>
-  <si>
-    <t>IDM KAMPER TOILET 5S</t>
-  </si>
-  <si>
-    <t>20139963</t>
-  </si>
-  <si>
-    <t>LARISST CTRONELLA 5S</t>
-  </si>
-  <si>
-    <t>10000279</t>
-  </si>
-  <si>
-    <t>SWALLOW TLT.BALL 5'S</t>
-  </si>
-  <si>
-    <t>10000482</t>
-  </si>
-  <si>
-    <t>SWALLOW K/DEO BAL105</t>
-  </si>
-  <si>
-    <t>20017478</t>
-  </si>
-  <si>
-    <t>SWALLOW ORG S-160</t>
-  </si>
-  <si>
-    <t>20122471</t>
-  </si>
-  <si>
-    <t>STELLA LAV.GRD 42+13</t>
-  </si>
-  <si>
-    <t>20136409</t>
-  </si>
-  <si>
-    <t>STELLA BALI JAS42+13</t>
-  </si>
-  <si>
-    <t>20109616</t>
-  </si>
-  <si>
-    <t>STELLA CAFF.LATTE 42</t>
-  </si>
-  <si>
-    <t>20075791</t>
-  </si>
-  <si>
-    <t>STELLA POCKET ORG 10</t>
-  </si>
-  <si>
-    <t>20075798</t>
-  </si>
-  <si>
-    <t>STLLA POCKET PRPL 10</t>
-  </si>
-  <si>
-    <t>20091307</t>
-  </si>
-  <si>
-    <t>STELLA POCKET BLU 10</t>
-  </si>
-  <si>
-    <t>20138481</t>
-  </si>
-  <si>
-    <t>STELLA EXO.FRUIT 10G</t>
-  </si>
-  <si>
-    <t>20138482</t>
-  </si>
-  <si>
-    <t>STELLA LUX.FLOWR 10G</t>
-  </si>
-  <si>
-    <t>20105573</t>
-  </si>
-  <si>
-    <t>STELLA AF REF JPS160</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20037058</t>
-  </si>
-  <si>
-    <t>STELLA AF REF FLW160</t>
-  </si>
-  <si>
-    <t>20036827</t>
-  </si>
-  <si>
-    <t>STELLA AF REF GRN160</t>
-  </si>
-  <si>
-    <t>20044100</t>
-  </si>
-  <si>
-    <t>STELLA AF REF APL160</t>
-  </si>
-  <si>
-    <t>20135485</t>
-  </si>
-  <si>
-    <t>STELLA AF REF BAL160</t>
-  </si>
-  <si>
-    <t>20046210</t>
-  </si>
-  <si>
-    <t>GLADE OCN ESCPE 146G</t>
-  </si>
-  <si>
-    <t>10023003</t>
-  </si>
-  <si>
-    <t>GLADE PNY&amp;BRY BLS 70</t>
-  </si>
-  <si>
-    <t>10023002</t>
-  </si>
-  <si>
-    <t>GLADE FRESH ONE EF70</t>
-  </si>
-  <si>
-    <t>20096642</t>
-  </si>
-  <si>
-    <t>IDM FRSHNS LEMON 50</t>
-  </si>
-  <si>
-    <t>20096641</t>
-  </si>
-  <si>
-    <t>IDM FRSHNS ORANGE 50</t>
-  </si>
-  <si>
-    <t>10005428</t>
-  </si>
-  <si>
-    <t>STELLA IN ONE ORG 42</t>
-  </si>
-  <si>
-    <t>10005427</t>
-  </si>
-  <si>
-    <t>STELLA IN ONE LMN 42</t>
-  </si>
-  <si>
-    <t>20134373</t>
-  </si>
-  <si>
-    <t>STELLA ALAT+REFILL25</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>20134374</t>
-  </si>
-  <si>
-    <t>STELLA ELCTRIC LAV25</t>
-  </si>
-  <si>
-    <t>20139144</t>
-  </si>
-  <si>
-    <t>HIT XPRES PINK BL.35</t>
-  </si>
-  <si>
-    <t>20131161</t>
-  </si>
-  <si>
-    <t>HIT REF XPRES APLE35</t>
-  </si>
-  <si>
-    <t>20095744</t>
-  </si>
-  <si>
-    <t>HIT REF EXPRT FRS 35</t>
-  </si>
-  <si>
-    <t>20039183</t>
-  </si>
-  <si>
-    <t>HIT ALAT+REF EXP APL</t>
-  </si>
-  <si>
-    <t>10034732</t>
-  </si>
-  <si>
-    <t>HIT MAT ELECTRK 48'S</t>
-  </si>
-  <si>
-    <t>10027329</t>
-  </si>
-  <si>
-    <t>HIT ALT NYAMUK ELC 5</t>
-  </si>
-  <si>
-    <t>20084568</t>
-  </si>
-  <si>
-    <t>VAPE LIQ.SKR BLOSM45</t>
-  </si>
-  <si>
-    <t>20008748</t>
-  </si>
-  <si>
-    <t>VAPE LIQUID REF 45ML</t>
-  </si>
-  <si>
-    <t>20023870</t>
-  </si>
-  <si>
-    <t>VAPE LIQUID ELEKTRIK</t>
-  </si>
-  <si>
-    <t>20030445</t>
-  </si>
-  <si>
-    <t>VAPE SPRAY 1XSMP ORG</t>
-  </si>
-  <si>
-    <t>20073974</t>
-  </si>
-  <si>
-    <t>VAPE SPRAY 1XSMP SKR</t>
-  </si>
-  <si>
-    <t>20135247</t>
-  </si>
-  <si>
-    <t>BAYGON FLRL.FNTSY500</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>20135248</t>
-  </si>
-  <si>
-    <t>BAYGON CHRRY BRRY500</t>
-  </si>
-  <si>
-    <t>10015526</t>
-  </si>
-  <si>
-    <t>BAYGON SPRY LVND 750</t>
-  </si>
-  <si>
-    <t>20124346</t>
-  </si>
-  <si>
-    <t>BAYGON JPNSE&amp;PCH 600</t>
-  </si>
-  <si>
-    <t>RT,(E-6B)</t>
-  </si>
-  <si>
-    <t>20098605</t>
-  </si>
-  <si>
-    <t>BYGON SPRY CHR.BL600</t>
-  </si>
-  <si>
-    <t>10003272</t>
-  </si>
-  <si>
-    <t>BAYGON SPRY CITRS675</t>
-  </si>
-  <si>
-    <t>20071775</t>
-  </si>
-  <si>
-    <t>BAYGON FLO.GRDN 675</t>
-  </si>
-  <si>
-    <t>20139154</t>
-  </si>
-  <si>
-    <t>HIT COTTON PWD 600ML</t>
-  </si>
-  <si>
-    <t>20054151</t>
-  </si>
-  <si>
-    <t>HIT INS.SPRY LILY600</t>
-  </si>
-  <si>
-    <t>10005198</t>
-  </si>
-  <si>
-    <t>HIT INS.SPRAY ORG600</t>
-  </si>
-  <si>
-    <t>20109613</t>
-  </si>
-  <si>
-    <t>HIT SPRY.P/BLOSM 600</t>
-  </si>
-  <si>
-    <t>20080868</t>
-  </si>
-  <si>
-    <t>HIT FRESH CITRUS 600</t>
-  </si>
-  <si>
-    <t>20131365</t>
-  </si>
-  <si>
-    <t>HIT SPRY JPN.SKR 600</t>
-  </si>
-  <si>
-    <t>20076987</t>
-  </si>
-  <si>
-    <t>BAYGON FLOW.GRDN 200</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>20022902</t>
-  </si>
-  <si>
-    <t>HIT SPRAY ORG 180</t>
-  </si>
-  <si>
-    <t>20064216</t>
-  </si>
-  <si>
-    <t>HIT INS.SPRY LILY180</t>
-  </si>
-  <si>
-    <t>20124418</t>
-  </si>
-  <si>
-    <t>VAPE SWEET PWDR 240</t>
-  </si>
-  <si>
-    <t>20139446</t>
-  </si>
-  <si>
-    <t>BAYGON CTRS FRSH 400</t>
-  </si>
-  <si>
-    <t>20128132</t>
-  </si>
-  <si>
-    <t>BAYGON FLO.GRDN 400</t>
-  </si>
-  <si>
-    <t>20088715</t>
-  </si>
-  <si>
-    <t>HIT SPRAY LILY 400ML</t>
-  </si>
-  <si>
-    <t>20022498</t>
-  </si>
-  <si>
-    <t>HIT SPRAY ORG 400ML</t>
-  </si>
-  <si>
-    <t>20134237</t>
-  </si>
-  <si>
-    <t>HIT SPRY.P/BLOSM 400</t>
-  </si>
-  <si>
-    <t>20136130</t>
-  </si>
-  <si>
-    <t>VAPE FLO.BUBBLE 600</t>
-  </si>
-  <si>
-    <t>20124850</t>
-  </si>
-  <si>
-    <t>VAPE SPRY SWET PD600</t>
-  </si>
-  <si>
-    <t>20136134</t>
-  </si>
-  <si>
-    <t>VAPE CANDY FLO 600</t>
-  </si>
-  <si>
-    <t>10006651</t>
-  </si>
-  <si>
-    <t>VAPE FMK ORANGE 600</t>
+    <t>998</t>
   </si>
 </sst>
 </file>
@@ -2374,13 +2383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F304"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="5" width="4" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3501,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,7 +3671,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,10 +3745,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -3746,19 +3756,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3775,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -3795,10 +3805,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -3815,10 +3825,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -3835,33 +3845,33 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3885,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,10 +3905,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
@@ -3915,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>22</v>
@@ -3935,13 +3945,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>19</v>
@@ -3975,30 +3985,30 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -4015,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -4035,10 +4045,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -4055,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -4075,10 +4085,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -4095,10 +4105,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -4115,10 +4125,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -4135,13 +4145,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,33 +4165,33 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="E90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4195,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>15</v>
@@ -4215,13 +4225,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,13 +4245,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4255,13 +4265,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,13 +4285,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>15</v>
@@ -4315,33 +4325,33 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,13 +4365,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,13 +4385,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,33 +4405,33 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4435,13 +4445,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>19</v>
@@ -4475,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>19</v>
@@ -6998,7 +7008,7 @@
         <v>486</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>19</v>
@@ -7018,7 +7028,7 @@
         <v>486</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>105</v>
@@ -7038,7 +7048,7 @@
         <v>486</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>19</v>
@@ -7058,7 +7068,7 @@
         <v>486</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>322</v>
@@ -7078,7 +7088,7 @@
         <v>486</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>19</v>
@@ -7298,7 +7308,7 @@
         <v>517</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>5</v>
@@ -7318,7 +7328,7 @@
         <v>517</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>5</v>
@@ -7338,7 +7348,7 @@
         <v>517</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>306</v>
@@ -7358,7 +7368,7 @@
         <v>517</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>306</v>
@@ -7378,7 +7388,7 @@
         <v>517</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>306</v>
@@ -7398,7 +7408,7 @@
         <v>517</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>105</v>
@@ -7418,7 +7428,7 @@
         <v>517</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>105</v>
@@ -7638,7 +7648,7 @@
         <v>552</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>322</v>
@@ -7658,7 +7668,7 @@
         <v>552</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>322</v>
@@ -7878,7 +7888,7 @@
         <v>577</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>5</v>
@@ -7898,7 +7908,7 @@
         <v>577</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>105</v>
@@ -7918,7 +7928,7 @@
         <v>577</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>105</v>
@@ -8138,7 +8148,7 @@
         <v>604</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>5</v>
@@ -8158,7 +8168,7 @@
         <v>604</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>5</v>
@@ -8178,7 +8188,7 @@
         <v>604</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>322</v>
@@ -8398,7 +8408,7 @@
         <v>632</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>5</v>
@@ -8418,7 +8428,7 @@
         <v>632</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>5</v>
@@ -8438,10 +8448,30 @@
         <v>632</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DND05S.xlsx
+++ b/DND05S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="651">
   <si>
     <t/>
   </si>
@@ -115,75 +115,63 @@
     <t>6</t>
   </si>
   <si>
-    <t>20134544</t>
-  </si>
-  <si>
-    <t>RINSO DET JPN.PCH360</t>
+    <t>20113809</t>
+  </si>
+  <si>
+    <t>OXYKLIN DTRG LIQ 700</t>
+  </si>
+  <si>
+    <t>20133212</t>
+  </si>
+  <si>
+    <t>BOOM DET.CAIR RSE510</t>
+  </si>
+  <si>
+    <t>20133213</t>
+  </si>
+  <si>
+    <t>BOOM DET.CAIR LAV510</t>
+  </si>
+  <si>
+    <t>20123019</t>
+  </si>
+  <si>
+    <t>SAYANG LIQ ROSE 510</t>
+  </si>
+  <si>
+    <t>20134103</t>
+  </si>
+  <si>
+    <t>ATTACK GEL S.CNTA515</t>
+  </si>
+  <si>
+    <t>20138111</t>
+  </si>
+  <si>
+    <t>JAZ 1 ROSE BERY 515G</t>
+  </si>
+  <si>
+    <t>20097739</t>
+  </si>
+  <si>
+    <t>IDM DET.CAIR PCH 700</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>20134545</t>
-  </si>
-  <si>
-    <t>RINSO DET KRN.STR360</t>
+    <t>PT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20129837</t>
+  </si>
+  <si>
+    <t>LARIST SPR.GRD 750ML</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>20113809</t>
-  </si>
-  <si>
-    <t>OXYKLIN DTRG LIQ 700</t>
-  </si>
-  <si>
-    <t>20133212</t>
-  </si>
-  <si>
-    <t>BOOM DET.CAIR RSE510</t>
-  </si>
-  <si>
-    <t>20133213</t>
-  </si>
-  <si>
-    <t>BOOM DET.CAIR LAV510</t>
-  </si>
-  <si>
-    <t>20123019</t>
-  </si>
-  <si>
-    <t>SAYANG LIQ ROSE 510</t>
-  </si>
-  <si>
-    <t>20134103</t>
-  </si>
-  <si>
-    <t>ATTACK GEL S.CNTA515</t>
-  </si>
-  <si>
-    <t>20138111</t>
-  </si>
-  <si>
-    <t>JAZ 1 ROSE BERY 515G</t>
-  </si>
-  <si>
-    <t>20097739</t>
-  </si>
-  <si>
-    <t>IDM DET.CAIR PCH 700</t>
-  </si>
-  <si>
-    <t>PT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20129837</t>
-  </si>
-  <si>
-    <t>LARIST SPR.GRD 750ML</t>
-  </si>
-  <si>
     <t>20090425</t>
   </si>
   <si>
@@ -1291,12 +1279,6 @@
     <t>IDM P.PRNG JRK.N 650</t>
   </si>
   <si>
-    <t>20132940</t>
-  </si>
-  <si>
-    <t>IDM P.PRNG LEMON 650</t>
-  </si>
-  <si>
     <t>20138518</t>
   </si>
   <si>
@@ -1982,15 +1964,6 @@
   </si>
   <si>
     <t>VAPE FMK ORANGE 600</t>
-  </si>
-  <si>
-    <t>20131790</t>
-  </si>
-  <si>
-    <t>BOOM DET.BBK ROSE770</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
 </sst>
 </file>
@@ -2383,14 +2356,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F300"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="4" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2645,41 +2617,41 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -2688,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -2696,10 +2668,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -2708,7 +2680,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -2716,10 +2688,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -2728,7 +2700,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2736,10 +2708,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -2748,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -2756,10 +2728,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -2768,10 +2740,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,18 +2760,18 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -2808,50 +2780,50 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2868,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -2888,7 +2860,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>22</v>
@@ -2908,10 +2880,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,10 +2900,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,10 +2920,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,7 +2940,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -2988,7 +2960,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -3005,10 +2977,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -3025,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -3048,7 +3020,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -3068,7 +3040,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -3088,10 +3060,10 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,18 +3080,18 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -3128,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>22</v>
@@ -3136,22 +3108,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,13 +3137,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3188,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -3208,7 +3180,7 @@
         <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -3228,10 +3200,10 @@
         <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,18 +3220,18 @@
         <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -3268,18 +3240,18 @@
         <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -3288,10 +3260,10 @@
         <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,13 +3277,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,13 +3297,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,13 +3317,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,10 +3337,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -3385,13 +3357,13 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -3425,10 +3397,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -3445,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -3465,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3457,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,13 +3477,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3497,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -3565,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -3585,10 +3557,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -3605,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -3625,10 +3597,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -3636,19 +3608,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -3656,19 +3628,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -3685,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3705,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3725,10 +3697,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -3736,19 +3708,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -3756,19 +3728,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3785,10 +3757,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -3805,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -3825,30 +3797,30 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -3856,22 +3828,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,13 +3857,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,10 +3877,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
@@ -3925,13 +3897,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,13 +3917,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,50 +3937,50 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -4025,10 +3997,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -4045,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -4065,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -4085,10 +4057,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -4105,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -4125,13 +4097,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,53 +4117,53 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E89" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,13 +4177,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4197,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4217,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,13 +4237,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,13 +4257,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,53 +4277,53 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,10 +4337,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>22</v>
@@ -4385,50 +4357,50 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>19</v>
@@ -4445,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>19</v>
@@ -4465,50 +4437,50 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>22</v>
@@ -4525,13 +4497,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,13 +4517,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,53 +4537,53 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,13 +4597,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,13 +4617,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,53 +4637,53 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>259</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,13 +4697,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,10 +4717,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4765,13 +4737,13 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,13 +4757,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,10 +4777,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>19</v>
@@ -4825,10 +4797,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>19</v>
@@ -4845,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>19</v>
@@ -4865,50 +4837,50 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E125" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -4925,10 +4897,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -4945,10 +4917,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
@@ -4965,10 +4937,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>5</v>
@@ -4985,10 +4957,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -5005,10 +4977,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -5025,50 +4997,50 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E133" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>22</v>
@@ -5085,13 +5057,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5105,53 +5077,53 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,13 +5137,13 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,10 +5157,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>22</v>
@@ -5205,93 +5177,93 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,13 +5277,13 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,13 +5297,13 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,13 +5317,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,50 +5337,50 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="E150" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>22</v>
@@ -5425,10 +5397,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>22</v>
@@ -5445,13 +5417,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,13 +5437,13 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,13 +5457,13 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,13 +5477,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,53 +5497,53 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E158" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,13 +5557,13 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5605,13 +5577,13 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,13 +5597,13 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,13 +5617,13 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,13 +5637,13 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,13 +5657,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5705,53 +5677,53 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,10 +5737,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5785,10 +5757,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>5</v>
@@ -5805,10 +5777,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5825,10 +5797,10 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5845,10 +5817,10 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5856,19 +5828,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5876,19 +5848,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5905,10 +5877,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5925,13 +5897,13 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,13 +5917,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,13 +5937,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,50 +5957,50 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -6045,10 +6017,10 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -6065,10 +6037,10 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -6085,13 +6057,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,13 +6077,13 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,13 +6097,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,53 +6117,53 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,13 +6177,13 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,13 +6197,13 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,73 +6217,73 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,13 +6297,13 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,13 +6317,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,10 +6337,10 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>22</v>
@@ -6376,19 +6348,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="E200" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>22</v>
@@ -6396,19 +6368,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>22</v>
@@ -6416,22 +6388,22 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6445,13 +6417,13 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6465,13 +6437,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,13 +6457,13 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,13 +6477,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,13 +6497,13 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,73 +6517,73 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>322</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6625,13 +6597,13 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6645,13 +6617,13 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6665,13 +6637,13 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,133 +6657,133 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>306</v>
+        <v>473</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>54</v>
+        <v>473</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>479</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>479</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,13 +6797,13 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,13 +6817,13 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6865,13 +6837,13 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,13 +6857,13 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,13 +6877,13 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,13 +6897,13 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,13 +6917,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>353</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,13 +6937,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,13 +6957,13 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>322</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7005,13 +6977,13 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,13 +6997,13 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7045,73 +7017,73 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -7125,13 +7097,13 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -7145,13 +7117,13 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,13 +7137,13 @@
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -7185,13 +7157,13 @@
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,13 +7177,13 @@
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,13 +7197,13 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7245,13 +7217,13 @@
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7265,13 +7237,13 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7285,13 +7257,13 @@
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,13 +7277,13 @@
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,13 +7297,13 @@
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -7345,13 +7317,13 @@
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,13 +7337,13 @@
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7385,73 +7357,73 @@
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7465,13 +7437,13 @@
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,13 +7457,13 @@
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>322</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7505,13 +7477,13 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>322</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7525,13 +7497,13 @@
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7545,13 +7517,13 @@
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7565,13 +7537,13 @@
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7585,13 +7557,13 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7605,13 +7577,13 @@
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7625,73 +7597,73 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>259</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7705,13 +7677,13 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7725,13 +7697,13 @@
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7745,13 +7717,13 @@
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7765,13 +7737,13 @@
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7785,13 +7757,13 @@
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7805,13 +7777,13 @@
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7825,13 +7797,13 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7845,13 +7817,13 @@
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7865,13 +7837,13 @@
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7885,133 +7857,133 @@
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="E276" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>322</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>611</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -8025,13 +7997,13 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8045,13 +8017,13 @@
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -8065,13 +8037,13 @@
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -8085,10 +8057,10 @@
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>5</v>
@@ -8105,13 +8077,13 @@
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,13 +8097,13 @@
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,73 +8117,73 @@
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="E289" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8225,13 +8197,13 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8245,13 +8217,13 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,13 +8237,13 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8285,13 +8257,13 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -8305,13 +8277,13 @@
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8325,13 +8297,13 @@
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -8345,13 +8317,13 @@
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -8365,10 +8337,10 @@
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>5</v>
@@ -8385,93 +8357,13 @@
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F303" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DND05S.xlsx
+++ b/DND05S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="653">
   <si>
     <t/>
   </si>
@@ -274,6 +274,12 @@
     <t>PT,(E-1.5B)</t>
   </si>
   <si>
+    <t>20141203</t>
+  </si>
+  <si>
+    <t>RINSO RYL GOLD 700G</t>
+  </si>
+  <si>
     <t>20140001</t>
   </si>
   <si>
@@ -637,12 +643,6 @@
     <t>DOWNY PASSION 600ML</t>
   </si>
   <si>
-    <t>20087479</t>
-  </si>
-  <si>
-    <t>DOWNY FLO.PINK 600ML</t>
-  </si>
-  <si>
     <t>20139145</t>
   </si>
   <si>
@@ -667,7 +667,7 @@
     <t>20139609</t>
   </si>
   <si>
-    <t>RNSO JPN PEAC 1.44KG</t>
+    <t>RNSO JPN PEAC 1440G</t>
   </si>
   <si>
     <t>20140002</t>
@@ -1003,7 +1003,7 @@
     <t>10014263</t>
   </si>
   <si>
-    <t>WIPOL KARBOL CMR 730</t>
+    <t>WIPOL KARBOL CMR 720</t>
   </si>
   <si>
     <t>23</t>
@@ -1012,13 +1012,13 @@
     <t>20001645</t>
   </si>
   <si>
-    <t>WIPOL KARBOL LMN 730</t>
+    <t>WIPOL KARBOL LMN 720</t>
   </si>
   <si>
     <t>20090066</t>
   </si>
   <si>
-    <t>WIPOL SRH + JRK 730</t>
+    <t>WIPOL SRH + JRK 720</t>
   </si>
   <si>
     <t>20122478</t>
@@ -1111,82 +1111,172 @@
     <t>IDM KRBL SRH CTR 650</t>
   </si>
   <si>
+    <t>20128125</t>
+  </si>
+  <si>
+    <t>IDM PURPOSE CLN 375</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20027963</t>
+  </si>
+  <si>
+    <t>IDM PMBERSH KACA 400</t>
+  </si>
+  <si>
+    <t>10003706</t>
+  </si>
+  <si>
+    <t>MR.MUSCLE ORGNL 400</t>
+  </si>
+  <si>
+    <t>10012548</t>
+  </si>
+  <si>
+    <t>SOKLIN RLX/LAV RF770</t>
+  </si>
+  <si>
+    <t>10003646</t>
+  </si>
+  <si>
+    <t>SO KLIN P/L APPLE770</t>
+  </si>
+  <si>
+    <t>10003645</t>
+  </si>
+  <si>
+    <t>SO KLIN P/L LMN 780</t>
+  </si>
+  <si>
+    <t>20101095</t>
+  </si>
+  <si>
+    <t>SO KLN LNT SEREH 770</t>
+  </si>
+  <si>
+    <t>20131223</t>
+  </si>
+  <si>
+    <t>SO KLN LNT CT.GRD700</t>
+  </si>
+  <si>
+    <t>20131788</t>
+  </si>
+  <si>
+    <t>MAMA LMN JR.NPS 950</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20092331</t>
+  </si>
+  <si>
+    <t>EKONOMI LIQ JR.NP650</t>
+  </si>
+  <si>
+    <t>20123812</t>
+  </si>
+  <si>
+    <t>EKONOMI LQ.SEREH 650</t>
+  </si>
+  <si>
+    <t>20107240</t>
+  </si>
+  <si>
+    <t>EKONOMI LIQ.SW&amp;JR650</t>
+  </si>
+  <si>
+    <t>20136124</t>
+  </si>
+  <si>
+    <t>EKNOMI LIQ N&amp;JN 675G</t>
+  </si>
+  <si>
+    <t>20129722</t>
+  </si>
+  <si>
+    <t>BUKRIM LIQ.JRK NP550</t>
+  </si>
+  <si>
+    <t>20138518</t>
+  </si>
+  <si>
+    <t>KILAU NIPIS 630ML</t>
+  </si>
+  <si>
+    <t>20034450</t>
+  </si>
+  <si>
+    <t>MAMA/L JERUK NPS 690</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10004067</t>
+  </si>
+  <si>
+    <t>MAMA/L PCH LEMON 690</t>
+  </si>
+  <si>
+    <t>20099424</t>
+  </si>
+  <si>
+    <t>MAMA LIME CHARCO 690</t>
+  </si>
+  <si>
+    <t>20052031</t>
+  </si>
+  <si>
+    <t>MAMA LIME GRN TEA690</t>
+  </si>
+  <si>
+    <t>10004068</t>
+  </si>
+  <si>
+    <t>MAMA LIME POUCH 690</t>
+  </si>
+  <si>
+    <t>20134303</t>
+  </si>
+  <si>
+    <t>MAMA/L REF YUZU 690</t>
+  </si>
+  <si>
+    <t>20137792</t>
+  </si>
+  <si>
+    <t>MAMA LIME GREEN 690</t>
+  </si>
+  <si>
+    <t>20034449</t>
+  </si>
+  <si>
+    <t>MAMA/L JERUK NPS 430</t>
+  </si>
+  <si>
+    <t>20090067</t>
+  </si>
+  <si>
+    <t>SNLGHT MINT A.BAU600</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20086172</t>
+  </si>
+  <si>
+    <t>SNLIGHT MND.ORGE 600</t>
+  </si>
+  <si>
     <t>20112492</t>
   </si>
   <si>
-    <t>SUNLIGHT LIME 430G</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20034449</t>
-  </si>
-  <si>
-    <t>MAMA/L JERUK NPS 430</t>
-  </si>
-  <si>
-    <t>10012548</t>
-  </si>
-  <si>
-    <t>SOKLIN RLX/LAV RF770</t>
-  </si>
-  <si>
-    <t>10003646</t>
-  </si>
-  <si>
-    <t>SO KLIN P/L APPLE770</t>
-  </si>
-  <si>
-    <t>10003645</t>
-  </si>
-  <si>
-    <t>SO KLIN P/L LMN 780</t>
-  </si>
-  <si>
-    <t>20101095</t>
-  </si>
-  <si>
-    <t>SO KLN LNT SEREH 770</t>
-  </si>
-  <si>
-    <t>20131223</t>
-  </si>
-  <si>
-    <t>SO KLN LNT CT.GRD700</t>
-  </si>
-  <si>
-    <t>20131788</t>
-  </si>
-  <si>
-    <t>MAMA LMN JR.NPS 950</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20092331</t>
-  </si>
-  <si>
-    <t>EKONOMI LIQ JR.NP650</t>
-  </si>
-  <si>
-    <t>20123812</t>
-  </si>
-  <si>
-    <t>EKONOMI LQ.SEREH 650</t>
-  </si>
-  <si>
-    <t>20107240</t>
-  </si>
-  <si>
-    <t>EKONOMI LIQ.SW&amp;JR650</t>
-  </si>
-  <si>
-    <t>20136124</t>
-  </si>
-  <si>
-    <t>EKNOMI LIQ N&amp;JN 675G</t>
+    <t>SUNLIGHT JRK NPS400G</t>
   </si>
   <si>
     <t>20128374</t>
@@ -1201,55 +1291,37 @@
     <t>LFEBUOY REF LEMON650</t>
   </si>
   <si>
-    <t>20034450</t>
-  </si>
-  <si>
-    <t>MAMA/L JERUK NPS 690</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10004067</t>
-  </si>
-  <si>
-    <t>MAMA/L PCH LEMON 690</t>
-  </si>
-  <si>
-    <t>20099424</t>
-  </si>
-  <si>
-    <t>MAMA LIME CHARCO 690</t>
-  </si>
-  <si>
-    <t>20052031</t>
-  </si>
-  <si>
-    <t>MAMA LIME GRN TEA690</t>
-  </si>
-  <si>
-    <t>10004068</t>
-  </si>
-  <si>
-    <t>MAMA LIME POUCH 690</t>
-  </si>
-  <si>
-    <t>20134303</t>
-  </si>
-  <si>
-    <t>MAMA/L REF YUZU 690</t>
-  </si>
-  <si>
-    <t>20137792</t>
-  </si>
-  <si>
-    <t>MAMA LIME GREEN 690</t>
-  </si>
-  <si>
-    <t>20129722</t>
-  </si>
-  <si>
-    <t>BUKRIM LIQ.JRK NP550</t>
+    <t>20073425</t>
+  </si>
+  <si>
+    <t>IDM P.PRNG JRK.N 650</t>
+  </si>
+  <si>
+    <t>20141204</t>
+  </si>
+  <si>
+    <t>IDM P.PRG JR.NPS 950</t>
+  </si>
+  <si>
+    <t>20112491</t>
+  </si>
+  <si>
+    <t>SNLIGHT LIME PCH 910</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20139728</t>
+  </si>
+  <si>
+    <t>SNLGHT BIO BLBR 870G</t>
+  </si>
+  <si>
+    <t>10005482</t>
+  </si>
+  <si>
+    <t>SNLIGHT LIME PCH 660</t>
   </si>
   <si>
     <t>20135144</t>
@@ -1258,72 +1330,6 @@
     <t>SNLGHT BIO NATURE600</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20090067</t>
-  </si>
-  <si>
-    <t>SNLGHT MINT A.BAU600</t>
-  </si>
-  <si>
-    <t>20086172</t>
-  </si>
-  <si>
-    <t>SNLIGHT MND.ORGE 600</t>
-  </si>
-  <si>
-    <t>20073425</t>
-  </si>
-  <si>
-    <t>IDM P.PRNG JRK.N 650</t>
-  </si>
-  <si>
-    <t>20138518</t>
-  </si>
-  <si>
-    <t>KILAU NIPIS 630ML</t>
-  </si>
-  <si>
-    <t>20128125</t>
-  </si>
-  <si>
-    <t>IDM PURPOSE CLN 375</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20027963</t>
-  </si>
-  <si>
-    <t>IDM PMBERSH KACA 400</t>
-  </si>
-  <si>
-    <t>10003706</t>
-  </si>
-  <si>
-    <t>MR.MUSCLE ORGNL 400</t>
-  </si>
-  <si>
-    <t>20139728</t>
-  </si>
-  <si>
-    <t>SNLGHT BIO BLBR 870G</t>
-  </si>
-  <si>
-    <t>20112491</t>
-  </si>
-  <si>
-    <t>SNLIGHT LIME PCH 910</t>
-  </si>
-  <si>
-    <t>10005482</t>
-  </si>
-  <si>
-    <t>SNLIGHT LIME PCH 660</t>
-  </si>
-  <si>
     <t>10013205</t>
   </si>
   <si>
@@ -1384,7 +1390,7 @@
     <t>10004032</t>
   </si>
   <si>
-    <t>VIXAL KUAT HARUM 750</t>
+    <t>VIXAL KUAT HARUM 720</t>
   </si>
   <si>
     <t>31</t>
@@ -1393,13 +1399,13 @@
     <t>10004034</t>
   </si>
   <si>
-    <t>VIXAL KMR MD KUAT750</t>
+    <t>VIXAL KMR MD KUAT720</t>
   </si>
   <si>
     <t>10003359</t>
   </si>
   <si>
-    <t>WIPOL P.LNT BTL 730</t>
+    <t>WIPOL CEMARA BTL 730</t>
   </si>
   <si>
     <t>10000955</t>
@@ -1909,7 +1915,7 @@
     <t>20124418</t>
   </si>
   <si>
-    <t>VAPE SWEET PWDR 240</t>
+    <t>VAPE SWEET PWDR 200</t>
   </si>
   <si>
     <t>20139446</t>
@@ -2356,7 +2362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F301"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3117,13 +3123,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3140,7 +3146,7 @@
         <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
@@ -3160,7 +3166,7 @@
         <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -3180,7 +3186,7 @@
         <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -3200,10 +3206,10 @@
         <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,18 +3226,18 @@
         <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -3240,10 +3246,10 @@
         <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,10 +3266,10 @@
         <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,13 +3283,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,7 +3306,7 @@
         <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -3320,10 +3326,10 @@
         <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,10 +3346,10 @@
         <v>48</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3360,7 +3366,7 @@
         <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -3380,7 +3386,7 @@
         <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -3400,7 +3406,7 @@
         <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -3420,7 +3426,7 @@
         <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -3437,13 +3443,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,7 +3466,7 @@
         <v>52</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>19</v>
@@ -3480,10 +3486,10 @@
         <v>52</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3500,7 +3506,7 @@
         <v>52</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -3517,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -3540,7 +3546,7 @@
         <v>55</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -3560,7 +3566,7 @@
         <v>55</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -3580,7 +3586,7 @@
         <v>55</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -3597,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -3608,19 +3614,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -3637,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -3657,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3677,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3697,10 +3703,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -3708,19 +3714,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -3737,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3757,10 +3763,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -3777,10 +3783,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -3797,33 +3803,33 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3837,13 +3843,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,10 +3863,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>22</v>
@@ -3877,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
@@ -3897,13 +3903,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,10 +3923,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>19</v>
@@ -3937,30 +3943,30 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3977,10 +3983,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3997,10 +4003,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -4017,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -4037,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -4057,10 +4063,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -4077,10 +4083,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -4097,13 +4103,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4117,33 +4123,33 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4157,10 +4163,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
@@ -4177,13 +4183,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4203,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,13 +4223,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,13 +4243,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4257,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>52</v>
@@ -4820,7 +4826,7 @@
         <v>254</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>19</v>
@@ -5683,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5703,7 +5709,7 @@
         <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5723,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5817,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5828,19 +5834,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5857,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5877,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>5</v>
@@ -5897,13 +5903,13 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5917,13 +5923,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,13 +5943,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5957,30 +5963,30 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5997,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -6017,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -6037,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -6057,13 +6063,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6077,13 +6083,13 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6097,13 +6103,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6117,30 +6123,30 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>22</v>
@@ -6157,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>255</v>
@@ -6177,13 +6183,13 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6197,13 +6203,13 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6217,30 +6223,30 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C194" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>49</v>
@@ -6248,39 +6254,39 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>22</v>
@@ -6297,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>22</v>
@@ -6317,10 +6323,10 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>22</v>
@@ -6337,10 +6343,10 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>22</v>
@@ -6348,19 +6354,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="E200" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>22</v>
@@ -6377,10 +6383,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>22</v>
@@ -6397,13 +6403,13 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,13 +6423,13 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6437,13 +6443,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,10 +6463,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>19</v>
@@ -6477,13 +6483,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6497,13 +6503,13 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,30 +6523,30 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>22</v>
@@ -6557,10 +6563,10 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>22</v>
@@ -6577,13 +6583,13 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6597,13 +6603,13 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>302</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6617,13 +6623,13 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6637,13 +6643,13 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,33 +6663,33 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>473</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6697,13 +6703,13 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>473</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6717,30 +6723,30 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>318</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>318</v>
@@ -6757,10 +6763,10 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>318</v>
@@ -6777,13 +6783,13 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6797,13 +6803,13 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6817,13 +6823,13 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6837,13 +6843,13 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,13 +6863,13 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,13 +6883,13 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6897,10 +6903,10 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>318</v>
@@ -6917,13 +6923,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,13 +6943,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6957,13 +6963,13 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6977,13 +6983,13 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6997,13 +7003,13 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7017,33 +7023,33 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>302</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -7057,10 +7063,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>302</v>
@@ -7077,10 +7083,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>302</v>
@@ -7097,10 +7103,10 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>302</v>
@@ -7117,10 +7123,10 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>302</v>
@@ -7137,13 +7143,13 @@
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -7157,13 +7163,13 @@
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -7177,13 +7183,13 @@
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7197,13 +7203,13 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7217,10 +7223,10 @@
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>5</v>
@@ -7237,10 +7243,10 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>5</v>
@@ -7257,13 +7263,13 @@
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>302</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7277,10 +7283,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>302</v>
@@ -7297,10 +7303,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>302</v>
@@ -7317,13 +7323,13 @@
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7337,13 +7343,13 @@
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7357,33 +7363,33 @@
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>349</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7397,10 +7403,10 @@
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>318</v>
@@ -7417,10 +7423,10 @@
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>318</v>
@@ -7437,13 +7443,13 @@
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7457,13 +7463,13 @@
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7477,10 +7483,10 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>19</v>
@@ -7497,10 +7503,10 @@
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>19</v>
@@ -7517,13 +7523,13 @@
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7537,10 +7543,10 @@
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>255</v>
@@ -7557,13 +7563,13 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7577,10 +7583,10 @@
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>318</v>
@@ -7597,30 +7603,30 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>5</v>
@@ -7637,13 +7643,13 @@
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7657,10 +7663,10 @@
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>318</v>
@@ -7677,10 +7683,10 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>318</v>
@@ -7697,10 +7703,10 @@
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>318</v>
@@ -7717,10 +7723,10 @@
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>318</v>
@@ -7737,10 +7743,10 @@
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>318</v>
@@ -7757,13 +7763,13 @@
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7777,10 +7783,10 @@
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>5</v>
@@ -7797,10 +7803,10 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>5</v>
@@ -7817,13 +7823,13 @@
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7837,13 +7843,13 @@
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7857,30 +7863,30 @@
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="E276" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>318</v>
@@ -7897,10 +7903,10 @@
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>318</v>
@@ -7917,33 +7923,33 @@
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>605</v>
+        <v>318</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7957,10 +7963,10 @@
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>318</v>
@@ -7977,10 +7983,10 @@
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>318</v>
@@ -7997,13 +8003,13 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,13 +8023,13 @@
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -8037,10 +8043,10 @@
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>318</v>
@@ -8057,13 +8063,13 @@
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -8077,10 +8083,10 @@
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>5</v>
@@ -8097,13 +8103,13 @@
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8117,10 +8123,10 @@
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>318</v>
@@ -8128,19 +8134,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="E289" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>318</v>
@@ -8157,10 +8163,10 @@
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>318</v>
@@ -8177,13 +8183,13 @@
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8197,13 +8203,13 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>349</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8217,13 +8223,13 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,10 +8243,10 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>318</v>
@@ -8257,10 +8263,10 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>318</v>
@@ -8277,13 +8283,13 @@
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8297,10 +8303,10 @@
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>5</v>
@@ -8317,10 +8323,10 @@
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>5</v>
@@ -8337,10 +8343,10 @@
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>5</v>
@@ -8357,12 +8363,32 @@
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F300" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F301" s="1" t="s">
         <v>19</v>
       </c>
     </row>
